--- a/Actuarial_Annuity_Calculator.xlsx
+++ b/Actuarial_Annuity_Calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Documents\Actuary\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EFE437B-9CD6-4B07-B01F-ADB2A72BEB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C89F5B9-FC76-43C7-85C0-381DB30B3EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DEF2D046-47D8-47A7-A088-BE1834AA0769}"/>
   </bookViews>
@@ -375,7 +375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -424,24 +424,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -458,19 +456,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -789,44 +774,42 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0240510B-FFB0-4EB2-80BA-3E01FE10A32B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:J76"/>
+  <dimension ref="B2:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
@@ -838,42 +821,44 @@
       <c r="E5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D6">
+        <f>B9</f>
         <v>40</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <f>_xlfn.IFNA(IF(E6="", "",HLOOKUP($B$6, 'Plan Calculations'!F2:L75, E6+1, FALSE)), "Something is wrong")</f>
         <v>0</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="8">
         <f>SUM(F6:F105)</f>
-        <v>270000</v>
-      </c>
-      <c r="I6" s="6"/>
+        <v>3280000</v>
+      </c>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D7">
+        <f>IF(E7="", "", D6+1)</f>
         <v>41</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <f>_xlfn.IFNA(IF(E7="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E7+1, FALSE)), "Something is wrong")</f>
         <v>0</v>
       </c>
@@ -883,48 +868,51 @@
         <v>1</v>
       </c>
       <c r="D8">
+        <f t="shared" ref="D8:D71" si="0">IF(E8="", "", D7+1)</f>
         <v>42</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <f>_xlfn.IFNA(IF(E8="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E8+1, FALSE)), "Something is wrong")</f>
         <v>0</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>40</v>
       </c>
       <c r="D9">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="E9">
         <v>4</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <f>_xlfn.IFNA(IF(E9="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E9+1, FALSE)), "Something is wrong")</f>
         <v>0</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="10">
         <f>COUNTIF(F6:F105, "&gt;0")</f>
-        <v>9</v>
-      </c>
-      <c r="I9" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D10">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="E10">
         <v>5</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <f>_xlfn.IFNA(IF(E10="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E10+1, FALSE)), "Something is wrong")</f>
         <v>0</v>
       </c>
@@ -932,51 +920,54 @@
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="str">
         <f>IF(OR(B6="Plan #1", B6="Plan #3", B6="Plan #5", B6="Plan #6", B6="plan #7"), "Age Payments Begin", "")</f>
-        <v>Age Payments Begin</v>
+        <v/>
       </c>
       <c r="D11">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="E11">
         <v>6</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <f>_xlfn.IFNA(IF(E11="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E11+1, FALSE)), "Something is wrong")</f>
         <v>0</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D12">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="E12">
         <v>7</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <f>_xlfn.IFNA(IF(E12="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E12+1, FALSE)), "Something is wrong")</f>
         <v>0</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="10">
         <f>IF(OR(B6="Plan #1", B6="plan #5", B6="plan #6", B6="plan #7"), B12+B15-1, IF(B6="Plan #2", 94, IF(B6="Plan #3", 110, 100)))</f>
-        <v>81</v>
-      </c>
-      <c r="I12" s="8"/>
+        <v>100</v>
+      </c>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D13">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="E13">
         <v>8</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <f>_xlfn.IFNA(IF(E13="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E13+1, FALSE)), "Something is wrong")</f>
         <v>0</v>
       </c>
@@ -984,776 +975,1013 @@
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="str">
         <f>IF(OR(B6="Plan #1", B6="Plan #5", B6="Plan #6", B6="plan #7"), "Years of Payment", "")</f>
-        <v>Years of Payment</v>
+        <v/>
       </c>
       <c r="D14">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="E14">
         <v>9</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <f>_xlfn.IFNA(IF(E14="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E14+1, FALSE)), "Something is wrong")</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D15">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="E15">
         <v>10</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <f>_xlfn.IFNA(IF(E15="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E15+1, FALSE)), "Something is wrong")</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D16">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E16">
         <v>11</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <f>_xlfn.IFNA(IF(E16="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E16+1, FALSE)), "Something is wrong")</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="E17">
         <v>12</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <f>_xlfn.IFNA(IF(E17="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E17+1, FALSE)), "Something is wrong")</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="E18">
         <v>13</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <f>_xlfn.IFNA(IF(E18="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E18+1, FALSE)), "Something is wrong")</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19">
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="E19">
         <v>14</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <f>_xlfn.IFNA(IF(E19="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E19+1, FALSE)), "Something is wrong")</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D20">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="E20">
         <v>15</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <f>_xlfn.IFNA(IF(E20="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E20+1, FALSE)), "Something is wrong")</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="E21">
         <v>16</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <f>_xlfn.IFNA(IF(E21="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E21+1, FALSE)), "Something is wrong")</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22">
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="E22">
         <v>17</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <f>_xlfn.IFNA(IF(E22="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E22+1, FALSE)), "Something is wrong")</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="E23">
         <v>18</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <f>_xlfn.IFNA(IF(E23="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E23+1, FALSE)), "Something is wrong")</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D24">
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="E24">
         <v>19</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <f>_xlfn.IFNA(IF(E24="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E24+1, FALSE)), "Something is wrong")</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D25">
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="E25">
         <v>20</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <f>_xlfn.IFNA(IF(E25="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E25+1, FALSE)), "Something is wrong")</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D26">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E26">
         <v>21</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <f>_xlfn.IFNA(IF(E26="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E26+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D27">
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="E27">
         <v>22</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <f>_xlfn.IFNA(IF(E27="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E27+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>61000</v>
       </c>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D28">
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="E28">
         <v>23</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <f>_xlfn.IFNA(IF(E28="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E28+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D29">
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="E29">
         <v>24</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <f>_xlfn.IFNA(IF(E29="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E29+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>63000</v>
       </c>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D30">
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="E30">
         <v>25</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <f>_xlfn.IFNA(IF(E30="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E30+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>64000</v>
       </c>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D31">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="E31">
         <v>26</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <f>_xlfn.IFNA(IF(E31="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E31+1, FALSE)), "Something is wrong")</f>
-        <v>30000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D32">
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="E32">
         <v>27</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <f>_xlfn.IFNA(IF(E32="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E32+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33">
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="E33">
         <v>28</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <f>_xlfn.IFNA(IF(E33="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E33+1, FALSE)), "Something is wrong")</f>
-        <v>30000</v>
+        <v>67000</v>
       </c>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D34">
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="E34">
         <v>29</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <f>_xlfn.IFNA(IF(E34="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E34+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>68000</v>
       </c>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D35">
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="E35">
         <v>30</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <f>_xlfn.IFNA(IF(E35="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E35+1, FALSE)), "Something is wrong")</f>
-        <v>30000</v>
+        <v>69000</v>
       </c>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D36">
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="E36">
         <v>31</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <f>_xlfn.IFNA(IF(E36="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E36+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D37">
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="E37">
         <v>32</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
         <f>_xlfn.IFNA(IF(E37="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E37+1, FALSE)), "Something is wrong")</f>
-        <v>30000</v>
+        <v>71000</v>
       </c>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D38">
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="E38">
         <v>33</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3">
         <f>_xlfn.IFNA(IF(E38="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E38+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D39">
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="E39">
         <v>34</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="3">
         <f>_xlfn.IFNA(IF(E39="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E39+1, FALSE)), "Something is wrong")</f>
-        <v>30000</v>
+        <v>73000</v>
       </c>
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D40">
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="E40">
         <v>35</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="3">
         <f>_xlfn.IFNA(IF(E40="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E40+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>74000</v>
       </c>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D41">
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="E41">
         <v>36</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="3">
         <f>_xlfn.IFNA(IF(E41="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E41+1, FALSE)), "Something is wrong")</f>
-        <v>30000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D42">
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="E42">
         <v>37</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="3">
         <f>_xlfn.IFNA(IF(E42="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E42+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>76000</v>
       </c>
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D43">
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="E43">
         <v>38</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="3">
         <f>_xlfn.IFNA(IF(E43="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E43+1, FALSE)), "Something is wrong")</f>
-        <v>30000</v>
+        <v>77000</v>
       </c>
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D44">
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="E44">
         <v>39</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="3">
         <f>_xlfn.IFNA(IF(E44="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E44+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>78000</v>
       </c>
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D45">
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
       <c r="E45">
         <v>40</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="3">
         <f>_xlfn.IFNA(IF(E45="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E45+1, FALSE)), "Something is wrong")</f>
-        <v>30000</v>
+        <v>79000</v>
       </c>
     </row>
     <row r="46" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D46">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="E46">
         <v>41</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="3">
         <f>_xlfn.IFNA(IF(E46="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E46+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D47">
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="E47">
         <v>42</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="3">
         <f>_xlfn.IFNA(IF(E47="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E47+1, FALSE)), "Something is wrong")</f>
-        <v>30000</v>
+        <v>81000</v>
       </c>
     </row>
     <row r="48" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D48">
+        <f t="shared" si="0"/>
         <v>82</v>
       </c>
       <c r="E48">
         <v>43</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="3">
         <f>_xlfn.IFNA(IF(E48="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E48+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>82000</v>
       </c>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D49">
+        <f t="shared" si="0"/>
         <v>83</v>
       </c>
       <c r="E49">
         <v>44</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="3">
         <f>_xlfn.IFNA(IF(E49="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E49+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>83000</v>
       </c>
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D50">
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="E50">
         <v>45</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="3">
         <f>_xlfn.IFNA(IF(E50="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E50+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D51">
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="E51">
         <v>46</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="3">
         <f>_xlfn.IFNA(IF(E51="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E51+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D52">
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
       <c r="E52">
         <v>47</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="3">
         <f>_xlfn.IFNA(IF(E52="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E52+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>86000</v>
       </c>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D53">
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
       <c r="E53">
         <v>48</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="3">
         <f>_xlfn.IFNA(IF(E53="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E53+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>87000</v>
       </c>
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D54">
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="E54">
         <v>49</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="3">
         <f>_xlfn.IFNA(IF(E54="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E54+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>88000</v>
       </c>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D55">
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
       <c r="E55">
         <v>50</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="3">
         <f>_xlfn.IFNA(IF(E55="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E55+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>89000</v>
       </c>
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D56">
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="E56">
         <v>51</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="3">
         <f>_xlfn.IFNA(IF(E56="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E56+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D57">
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="E57">
         <v>52</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="3">
         <f>_xlfn.IFNA(IF(E57="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E57+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>91000</v>
       </c>
     </row>
     <row r="58" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D58">
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="E58">
         <v>53</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="3">
         <f>_xlfn.IFNA(IF(E58="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E58+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>92000</v>
       </c>
     </row>
     <row r="59" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D59">
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
       <c r="E59">
         <v>54</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="3">
         <f>_xlfn.IFNA(IF(E59="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E59+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>93000</v>
       </c>
     </row>
     <row r="60" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D60">
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="E60">
         <v>55</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="3">
         <f>_xlfn.IFNA(IF(E60="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E60+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>94000</v>
       </c>
     </row>
     <row r="61" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D61">
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="E61">
         <v>56</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="3">
         <f>_xlfn.IFNA(IF(E61="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E61+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>95000</v>
       </c>
     </row>
     <row r="62" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D62">
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="E62">
         <v>57</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="3">
         <f>_xlfn.IFNA(IF(E62="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E62+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>96000</v>
       </c>
     </row>
     <row r="63" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D63">
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="E63">
         <v>58</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="3">
         <f>_xlfn.IFNA(IF(E63="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E63+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>97000</v>
       </c>
     </row>
     <row r="64" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D64">
+        <f t="shared" si="0"/>
         <v>98</v>
       </c>
       <c r="E64">
         <v>59</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="3">
         <f>_xlfn.IFNA(IF(E64="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E64+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>98000</v>
       </c>
     </row>
     <row r="65" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D65">
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="E65">
         <v>60</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="3">
         <f>_xlfn.IFNA(IF(E65="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E65+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>99000</v>
       </c>
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D66">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E66">
         <v>61</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="3">
         <f>_xlfn.IFNA(IF(E66="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E66+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="67" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D67">
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
       <c r="E67">
         <v>62</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="3">
         <f>_xlfn.IFNA(IF(E67="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E67+1, FALSE)), "Something is wrong")</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D68">
+        <f t="shared" si="0"/>
         <v>102</v>
       </c>
       <c r="E68">
         <v>63</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="3">
         <f>_xlfn.IFNA(IF(E68="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E68+1, FALSE)), "Something is wrong")</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D69">
+        <f t="shared" si="0"/>
         <v>103</v>
       </c>
       <c r="E69">
         <v>64</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="3">
         <f>_xlfn.IFNA(IF(E69="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E69+1, FALSE)), "Something is wrong")</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D70">
+        <f t="shared" si="0"/>
         <v>104</v>
       </c>
       <c r="E70">
         <v>65</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="3">
         <f>_xlfn.IFNA(IF(E70="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E70+1, FALSE)), "Something is wrong")</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D71">
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="E71">
         <v>66</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="3">
         <f>_xlfn.IFNA(IF(E71="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E71+1, FALSE)), "Something is wrong")</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D72">
+        <f t="shared" ref="D72:D105" si="1">IF(E72="", "", D71+1)</f>
         <v>106</v>
       </c>
       <c r="E72">
         <v>67</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="3">
         <f>_xlfn.IFNA(IF(E72="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E72+1, FALSE)), "Something is wrong")</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D73">
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="E73">
         <v>68</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="3">
         <f>_xlfn.IFNA(IF(E73="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E73+1, FALSE)), "Something is wrong")</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D74">
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="E74">
         <v>69</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="3">
         <f>_xlfn.IFNA(IF(E74="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E74+1, FALSE)), "Something is wrong")</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D75">
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="E75">
         <v>70</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="3">
         <f>_xlfn.IFNA(IF(E75="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E75+1, FALSE)), "Something is wrong")</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D76">
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="E76">
         <v>71</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="3">
         <f>_xlfn.IFNA(IF(E76="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E76+1, FALSE)), "Something is wrong")</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D85" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D86" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D87" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D89" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D90" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D91" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D92" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D93" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D94" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D95" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D96" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D97" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D98" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D99" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D100" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D102" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D103" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D104" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D105" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{F6661F07-2BD3-47A9-9C55-823894EE0061}">
@@ -1776,7 +2004,7 @@
   <dimension ref="B2:L75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L75"/>
+      <selection activeCell="G3" sqref="G3:G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1784,7 +2012,7 @@
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.28515625" customWidth="1"/>
     <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="13.42578125" style="9" customWidth="1"/>
+    <col min="6" max="12" width="13.42578125" style="3" customWidth="1"/>
     <col min="13" max="15" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1792,32 +2020,32 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3">
         <f>'Illustration Calculator'!B15</f>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <f>B6</f>
@@ -1829,29 +2057,31 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="3">
         <f t="shared" ref="F3:F66" si="0">IF(AND($B$6+D3-1&gt;=$B$9, $B$6+D3-1&lt;$B$9+$B$3), 15000, 0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="9">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9">
+      <c r="G3" s="3">
+        <f>IF(OR(C3&lt;65,C3&gt;94),0, 25000+((C3-65)*1000))</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
         <f>IF(C3&lt;$B$9,0,7200)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9">
+      <c r="I3" s="3">
+        <f>IF(OR(C3&lt;60, C3&gt;100), 0, C3*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
         <f>IF(C3&lt;$B$9, 0, IF(C3&lt;$B$9+($B$3/2), 19000, IF(C3&lt;$B$9+$B$3,25000,0)))</f>
         <v>0</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="3">
         <f>IF(OR(C3&lt;$B$9,C3&gt;$B$9+$B$3-1),0,100000/$B$3)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="3">
         <f>IF(OR(C3=$B$9, AND(ISEVEN(C3-$B$9), C3&gt;$B$9, C3&lt;($B$9+$B$3))),30000,0)</f>
         <v>0</v>
       </c>
@@ -1867,30 +2097,32 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <f t="shared" ref="H4:H67" si="1">IF(C4&lt;$B$9,0,7200)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <f t="shared" ref="J4:J67" si="2">IF(C4&lt;$B$9, 0, IF(C4&lt;$B$9+($B$3/2), 19000, IF(C4&lt;$B$9+$B$3,25000,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <f t="shared" ref="K4:K67" si="3">IF(OR(C4&lt;$B$9,C4&gt;$B$9+$B$3-1),0,100000/$B$3)</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="9">
-        <f t="shared" ref="L4:L67" si="4">IF(OR(C4=$B$9, AND(ISEVEN(C4-$B$9), C4&gt;$B$9, C4&lt;($B$9+$B$3))),30000,0)</f>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G67" si="1">IF(OR(C4&lt;65,C4&gt;94),0, 25000+((C4-65)*1000))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" ref="H4:H67" si="2">IF(C4&lt;$B$9,0,7200)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" ref="I4:I67" si="3">IF(OR(C4&lt;60, C4&gt;100), 0, C4*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" ref="J4:J67" si="4">IF(C4&lt;$B$9, 0, IF(C4&lt;$B$9+($B$3/2), 19000, IF(C4&lt;$B$9+$B$3,25000,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" ref="K4:K67" si="5">IF(OR(C4&lt;$B$9,C4&gt;$B$9+$B$3-1),0,100000/$B$3)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" ref="L4:L67" si="6">IF(OR(C4=$B$9, AND(ISEVEN(C4-$B$9), C4&gt;$B$9, C4&lt;($B$9+$B$3))),30000,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1899,7 +2131,7 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C68" si="5">C4+1</f>
+        <f t="shared" ref="C5:C68" si="7">C4+1</f>
         <v>42</v>
       </c>
       <c r="D5">
@@ -1908,30 +2140,32 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="9">
-        <f t="shared" si="4"/>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1941,7 +2175,7 @@
         <v>40</v>
       </c>
       <c r="C6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>43</v>
       </c>
       <c r="D6">
@@ -1950,36 +2184,38 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <f t="shared" si="4"/>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
       <c r="D7">
@@ -1988,30 +2224,32 @@
       <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="9">
-        <f t="shared" si="4"/>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2020,7 +2258,7 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="D8">
@@ -2029,40 +2267,42 @@
       <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <f t="shared" si="4"/>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9">
         <f>'Illustration Calculator'!B12</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="D9">
@@ -2071,36 +2311,38 @@
       <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="9">
-        <f t="shared" si="4"/>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="D10">
@@ -2109,36 +2351,38 @@
       <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <f t="shared" si="4"/>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="D11">
@@ -2147,36 +2391,38 @@
       <c r="E11" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="9">
-        <f t="shared" si="4"/>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>49</v>
       </c>
       <c r="D12">
@@ -2185,36 +2431,38 @@
       <c r="E12" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
-        <f t="shared" si="4"/>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="D13">
@@ -2223,36 +2471,38 @@
       <c r="E13" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="9">
-        <f t="shared" si="4"/>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>51</v>
       </c>
       <c r="D14">
@@ -2261,36 +2511,38 @@
       <c r="E14" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <f t="shared" si="4"/>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>52</v>
       </c>
       <c r="D15">
@@ -2299,36 +2551,38 @@
       <c r="E15" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="9">
-        <f t="shared" si="4"/>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>53</v>
       </c>
       <c r="D16">
@@ -2337,36 +2591,38 @@
       <c r="E16" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="9">
-        <f t="shared" si="4"/>
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
       <c r="D17">
@@ -2375,36 +2631,38 @@
       <c r="E17" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0</v>
-      </c>
-      <c r="J17" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="9">
-        <f t="shared" si="4"/>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
       <c r="D18">
@@ -2413,36 +2671,38 @@
       <c r="E18" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="9">
-        <v>0</v>
-      </c>
-      <c r="J18" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="9">
-        <f t="shared" si="4"/>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>56</v>
       </c>
       <c r="D19">
@@ -2451,36 +2711,38 @@
       <c r="E19" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0</v>
-      </c>
-      <c r="J19" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="9">
-        <f t="shared" si="4"/>
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
       <c r="D20">
@@ -2489,36 +2751,38 @@
       <c r="E20" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
-      <c r="J20" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="9">
-        <f t="shared" si="4"/>
+      <c r="F20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>58</v>
       </c>
       <c r="D21">
@@ -2527,36 +2791,38 @@
       <c r="E21" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="9">
-        <v>0</v>
-      </c>
-      <c r="H21" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="9">
-        <v>0</v>
-      </c>
-      <c r="J21" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="9">
-        <f t="shared" si="4"/>
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>59</v>
       </c>
       <c r="D22">
@@ -2565,36 +2831,38 @@
       <c r="E22" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0</v>
-      </c>
-      <c r="J22" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="9">
-        <f t="shared" si="4"/>
+      <c r="F22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="D23">
@@ -2603,37 +2871,38 @@
       <c r="E23" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="9">
-        <v>0</v>
-      </c>
-      <c r="H23" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="9">
-        <f>C23*1000</f>
+      <c r="F23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="3"/>
         <v>60000</v>
       </c>
-      <c r="J23" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="9">
-        <f t="shared" si="4"/>
+      <c r="J23" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>61</v>
       </c>
       <c r="D24">
@@ -2642,37 +2911,38 @@
       <c r="E24" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="9">
-        <v>0</v>
-      </c>
-      <c r="H24" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="9">
-        <f t="shared" ref="I24:I63" si="6">C24*1000</f>
+      <c r="F24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="3"/>
         <v>61000</v>
       </c>
-      <c r="J24" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="9">
-        <f t="shared" si="4"/>
+      <c r="J24" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
       <c r="D25">
@@ -2681,37 +2951,38 @@
       <c r="E25" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="9">
-        <v>0</v>
-      </c>
-      <c r="H25" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="9">
-        <f t="shared" si="6"/>
+      <c r="F25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="3"/>
         <v>62000</v>
       </c>
-      <c r="J25" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="9">
-        <f t="shared" si="4"/>
+      <c r="J25" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>63</v>
       </c>
       <c r="D26">
@@ -2720,37 +2991,38 @@
       <c r="E26" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="9">
-        <v>0</v>
-      </c>
-      <c r="H26" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="9">
-        <f t="shared" si="6"/>
+      <c r="F26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="3"/>
         <v>63000</v>
       </c>
-      <c r="J26" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="9">
-        <f t="shared" si="4"/>
+      <c r="J26" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>64</v>
       </c>
       <c r="D27">
@@ -2759,37 +3031,38 @@
       <c r="E27" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="9">
-        <v>0</v>
-      </c>
-      <c r="H27" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="9">
-        <f t="shared" si="6"/>
+      <c r="F27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="3"/>
         <v>64000</v>
       </c>
-      <c r="J27" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="9">
-        <f t="shared" si="4"/>
+      <c r="J27" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
       <c r="D28">
@@ -2798,37 +3071,38 @@
       <c r="E28" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="9">
-        <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="G28" s="9">
+      <c r="F28" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="1"/>
         <v>25000</v>
       </c>
-      <c r="H28" s="9">
-        <f t="shared" si="1"/>
-        <v>7200</v>
-      </c>
-      <c r="I28" s="9">
-        <f t="shared" si="6"/>
+      <c r="H28" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="3"/>
         <v>65000</v>
       </c>
-      <c r="J28" s="9">
-        <f t="shared" si="2"/>
-        <v>19000</v>
-      </c>
-      <c r="K28" s="9">
-        <f t="shared" si="3"/>
-        <v>5882.3529411764703</v>
-      </c>
-      <c r="L28" s="9">
-        <f t="shared" si="4"/>
-        <v>30000</v>
+      <c r="J28" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>66</v>
       </c>
       <c r="D29">
@@ -2837,38 +3111,38 @@
       <c r="E29" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="9">
-        <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="G29" s="9">
-        <f>G28+1000</f>
+      <c r="F29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="1"/>
         <v>26000</v>
       </c>
-      <c r="H29" s="9">
-        <f t="shared" si="1"/>
-        <v>7200</v>
-      </c>
-      <c r="I29" s="9">
-        <f t="shared" si="6"/>
+      <c r="H29" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="3"/>
         <v>66000</v>
       </c>
-      <c r="J29" s="9">
-        <f t="shared" si="2"/>
-        <v>19000</v>
-      </c>
-      <c r="K29" s="9">
-        <f t="shared" si="3"/>
-        <v>5882.3529411764703</v>
-      </c>
-      <c r="L29" s="9">
-        <f t="shared" si="4"/>
+      <c r="J29" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>67</v>
       </c>
       <c r="D30">
@@ -2877,38 +3151,38 @@
       <c r="E30" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="9">
-        <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="G30" s="9">
-        <f t="shared" ref="G30:G57" si="7">G29+1000</f>
+      <c r="F30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="1"/>
         <v>27000</v>
       </c>
-      <c r="H30" s="9">
-        <f t="shared" si="1"/>
-        <v>7200</v>
-      </c>
-      <c r="I30" s="9">
-        <f t="shared" si="6"/>
+      <c r="H30" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="3"/>
         <v>67000</v>
       </c>
-      <c r="J30" s="9">
-        <f t="shared" si="2"/>
-        <v>19000</v>
-      </c>
-      <c r="K30" s="9">
-        <f t="shared" si="3"/>
-        <v>5882.3529411764703</v>
-      </c>
-      <c r="L30" s="9">
-        <f t="shared" si="4"/>
-        <v>30000</v>
+      <c r="J30" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>68</v>
       </c>
       <c r="D31">
@@ -2917,38 +3191,38 @@
       <c r="E31" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="9">
-        <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="G31" s="9">
-        <f t="shared" si="7"/>
+      <c r="F31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="1"/>
         <v>28000</v>
       </c>
-      <c r="H31" s="9">
-        <f t="shared" si="1"/>
-        <v>7200</v>
-      </c>
-      <c r="I31" s="9">
-        <f t="shared" si="6"/>
+      <c r="H31" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="3"/>
         <v>68000</v>
       </c>
-      <c r="J31" s="9">
-        <f t="shared" si="2"/>
-        <v>19000</v>
-      </c>
-      <c r="K31" s="9">
-        <f t="shared" si="3"/>
-        <v>5882.3529411764703</v>
-      </c>
-      <c r="L31" s="9">
-        <f t="shared" si="4"/>
+      <c r="J31" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>69</v>
       </c>
       <c r="D32">
@@ -2957,38 +3231,38 @@
       <c r="E32" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="9">
-        <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="G32" s="9">
-        <f t="shared" si="7"/>
+      <c r="F32" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="1"/>
         <v>29000</v>
       </c>
-      <c r="H32" s="9">
-        <f t="shared" si="1"/>
-        <v>7200</v>
-      </c>
-      <c r="I32" s="9">
-        <f t="shared" si="6"/>
+      <c r="H32" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" si="3"/>
         <v>69000</v>
       </c>
-      <c r="J32" s="9">
-        <f t="shared" si="2"/>
-        <v>19000</v>
-      </c>
-      <c r="K32" s="9">
-        <f t="shared" si="3"/>
-        <v>5882.3529411764703</v>
-      </c>
-      <c r="L32" s="9">
-        <f t="shared" si="4"/>
-        <v>30000</v>
+      <c r="J32" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
       <c r="D33">
@@ -2997,38 +3271,38 @@
       <c r="E33" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="3">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="G33" s="9">
-        <f t="shared" si="7"/>
+      <c r="G33" s="3">
+        <f t="shared" si="1"/>
         <v>30000</v>
       </c>
-      <c r="H33" s="9">
-        <f t="shared" si="1"/>
+      <c r="H33" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I33" s="9">
-        <f t="shared" si="6"/>
+      <c r="I33" s="3">
+        <f t="shared" si="3"/>
         <v>70000</v>
       </c>
-      <c r="J33" s="9">
-        <f t="shared" si="2"/>
+      <c r="J33" s="3">
+        <f t="shared" si="4"/>
         <v>19000</v>
       </c>
-      <c r="K33" s="9">
-        <f t="shared" si="3"/>
-        <v>5882.3529411764703</v>
-      </c>
-      <c r="L33" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="K33" s="3">
+        <f t="shared" si="5"/>
+        <v>14285.714285714286</v>
+      </c>
+      <c r="L33" s="3">
+        <f t="shared" si="6"/>
+        <v>30000</v>
       </c>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>71</v>
       </c>
       <c r="D34">
@@ -3037,38 +3311,38 @@
       <c r="E34" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="3">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="G34" s="9">
-        <f t="shared" si="7"/>
+      <c r="G34" s="3">
+        <f t="shared" si="1"/>
         <v>31000</v>
       </c>
-      <c r="H34" s="9">
-        <f t="shared" si="1"/>
+      <c r="H34" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I34" s="9">
-        <f t="shared" si="6"/>
+      <c r="I34" s="3">
+        <f t="shared" si="3"/>
         <v>71000</v>
       </c>
-      <c r="J34" s="9">
-        <f t="shared" si="2"/>
+      <c r="J34" s="3">
+        <f t="shared" si="4"/>
         <v>19000</v>
       </c>
-      <c r="K34" s="9">
-        <f t="shared" si="3"/>
-        <v>5882.3529411764703</v>
-      </c>
-      <c r="L34" s="9">
-        <f t="shared" si="4"/>
-        <v>30000</v>
+      <c r="K34" s="3">
+        <f t="shared" si="5"/>
+        <v>14285.714285714286</v>
+      </c>
+      <c r="L34" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>72</v>
       </c>
       <c r="D35">
@@ -3077,38 +3351,38 @@
       <c r="E35" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="3">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="G35" s="9">
-        <f t="shared" si="7"/>
+      <c r="G35" s="3">
+        <f t="shared" si="1"/>
         <v>32000</v>
       </c>
-      <c r="H35" s="9">
-        <f t="shared" si="1"/>
+      <c r="H35" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I35" s="9">
-        <f t="shared" si="6"/>
+      <c r="I35" s="3">
+        <f t="shared" si="3"/>
         <v>72000</v>
       </c>
-      <c r="J35" s="9">
-        <f t="shared" si="2"/>
+      <c r="J35" s="3">
+        <f t="shared" si="4"/>
         <v>19000</v>
       </c>
-      <c r="K35" s="9">
-        <f t="shared" si="3"/>
-        <v>5882.3529411764703</v>
-      </c>
-      <c r="L35" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="K35" s="3">
+        <f t="shared" si="5"/>
+        <v>14285.714285714286</v>
+      </c>
+      <c r="L35" s="3">
+        <f t="shared" si="6"/>
+        <v>30000</v>
       </c>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>73</v>
       </c>
       <c r="D36">
@@ -3117,38 +3391,38 @@
       <c r="E36" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="3">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="G36" s="9">
-        <f t="shared" si="7"/>
+      <c r="G36" s="3">
+        <f t="shared" si="1"/>
         <v>33000</v>
       </c>
-      <c r="H36" s="9">
-        <f t="shared" si="1"/>
+      <c r="H36" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I36" s="9">
-        <f t="shared" si="6"/>
+      <c r="I36" s="3">
+        <f t="shared" si="3"/>
         <v>73000</v>
       </c>
-      <c r="J36" s="9">
-        <f t="shared" si="2"/>
+      <c r="J36" s="3">
+        <f t="shared" si="4"/>
         <v>19000</v>
       </c>
-      <c r="K36" s="9">
-        <f t="shared" si="3"/>
-        <v>5882.3529411764703</v>
-      </c>
-      <c r="L36" s="9">
-        <f t="shared" si="4"/>
-        <v>30000</v>
+      <c r="K36" s="3">
+        <f t="shared" si="5"/>
+        <v>14285.714285714286</v>
+      </c>
+      <c r="L36" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>74</v>
       </c>
       <c r="D37">
@@ -3157,38 +3431,38 @@
       <c r="E37" t="s">
         <v>45</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="3">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="G37" s="9">
-        <f t="shared" si="7"/>
+      <c r="G37" s="3">
+        <f t="shared" si="1"/>
         <v>34000</v>
       </c>
-      <c r="H37" s="9">
-        <f t="shared" si="1"/>
+      <c r="H37" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I37" s="9">
-        <f t="shared" si="6"/>
+      <c r="I37" s="3">
+        <f t="shared" si="3"/>
         <v>74000</v>
       </c>
-      <c r="J37" s="9">
-        <f t="shared" si="2"/>
+      <c r="J37" s="3">
+        <f t="shared" si="4"/>
         <v>25000</v>
       </c>
-      <c r="K37" s="9">
-        <f t="shared" si="3"/>
-        <v>5882.3529411764703</v>
-      </c>
-      <c r="L37" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="K37" s="3">
+        <f t="shared" si="5"/>
+        <v>14285.714285714286</v>
+      </c>
+      <c r="L37" s="3">
+        <f t="shared" si="6"/>
+        <v>30000</v>
       </c>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="D38">
@@ -3197,38 +3471,38 @@
       <c r="E38" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="3">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="G38" s="9">
-        <f t="shared" si="7"/>
+      <c r="G38" s="3">
+        <f t="shared" si="1"/>
         <v>35000</v>
       </c>
-      <c r="H38" s="9">
-        <f t="shared" si="1"/>
+      <c r="H38" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I38" s="9">
-        <f t="shared" si="6"/>
+      <c r="I38" s="3">
+        <f t="shared" si="3"/>
         <v>75000</v>
       </c>
-      <c r="J38" s="9">
-        <f t="shared" si="2"/>
+      <c r="J38" s="3">
+        <f t="shared" si="4"/>
         <v>25000</v>
       </c>
-      <c r="K38" s="9">
-        <f t="shared" si="3"/>
-        <v>5882.3529411764703</v>
-      </c>
-      <c r="L38" s="9">
-        <f t="shared" si="4"/>
-        <v>30000</v>
+      <c r="K38" s="3">
+        <f t="shared" si="5"/>
+        <v>14285.714285714286</v>
+      </c>
+      <c r="L38" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>76</v>
       </c>
       <c r="D39">
@@ -3237,38 +3511,38 @@
       <c r="E39" t="s">
         <v>47</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="3">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="G39" s="9">
-        <f t="shared" si="7"/>
+      <c r="G39" s="3">
+        <f t="shared" si="1"/>
         <v>36000</v>
       </c>
-      <c r="H39" s="9">
-        <f t="shared" si="1"/>
+      <c r="H39" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I39" s="9">
-        <f t="shared" si="6"/>
+      <c r="I39" s="3">
+        <f t="shared" si="3"/>
         <v>76000</v>
       </c>
-      <c r="J39" s="9">
-        <f t="shared" si="2"/>
+      <c r="J39" s="3">
+        <f t="shared" si="4"/>
         <v>25000</v>
       </c>
-      <c r="K39" s="9">
-        <f t="shared" si="3"/>
-        <v>5882.3529411764703</v>
-      </c>
-      <c r="L39" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="K39" s="3">
+        <f t="shared" si="5"/>
+        <v>14285.714285714286</v>
+      </c>
+      <c r="L39" s="3">
+        <f t="shared" si="6"/>
+        <v>30000</v>
       </c>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>77</v>
       </c>
       <c r="D40">
@@ -3277,38 +3551,38 @@
       <c r="E40" t="s">
         <v>48</v>
       </c>
-      <c r="F40" s="9">
-        <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="G40" s="9">
-        <f t="shared" si="7"/>
+      <c r="F40" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="1"/>
         <v>37000</v>
       </c>
-      <c r="H40" s="9">
-        <f t="shared" si="1"/>
+      <c r="H40" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I40" s="9">
-        <f t="shared" si="6"/>
+      <c r="I40" s="3">
+        <f t="shared" si="3"/>
         <v>77000</v>
       </c>
-      <c r="J40" s="9">
-        <f t="shared" si="2"/>
-        <v>25000</v>
-      </c>
-      <c r="K40" s="9">
-        <f t="shared" si="3"/>
-        <v>5882.3529411764703</v>
-      </c>
-      <c r="L40" s="9">
-        <f t="shared" si="4"/>
-        <v>30000</v>
+      <c r="J40" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>78</v>
       </c>
       <c r="D41">
@@ -3317,38 +3591,38 @@
       <c r="E41" t="s">
         <v>49</v>
       </c>
-      <c r="F41" s="9">
-        <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="G41" s="9">
-        <f t="shared" si="7"/>
+      <c r="F41" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="1"/>
         <v>38000</v>
       </c>
-      <c r="H41" s="9">
-        <f t="shared" si="1"/>
+      <c r="H41" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I41" s="9">
-        <f t="shared" si="6"/>
+      <c r="I41" s="3">
+        <f t="shared" si="3"/>
         <v>78000</v>
       </c>
-      <c r="J41" s="9">
-        <f t="shared" si="2"/>
-        <v>25000</v>
-      </c>
-      <c r="K41" s="9">
-        <f t="shared" si="3"/>
-        <v>5882.3529411764703</v>
-      </c>
-      <c r="L41" s="9">
-        <f t="shared" si="4"/>
+      <c r="J41" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>79</v>
       </c>
       <c r="D42">
@@ -3357,38 +3631,38 @@
       <c r="E42" t="s">
         <v>50</v>
       </c>
-      <c r="F42" s="9">
-        <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="G42" s="9">
-        <f t="shared" si="7"/>
+      <c r="F42" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="1"/>
         <v>39000</v>
       </c>
-      <c r="H42" s="9">
-        <f t="shared" si="1"/>
+      <c r="H42" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I42" s="9">
-        <f t="shared" si="6"/>
+      <c r="I42" s="3">
+        <f t="shared" si="3"/>
         <v>79000</v>
       </c>
-      <c r="J42" s="9">
-        <f t="shared" si="2"/>
-        <v>25000</v>
-      </c>
-      <c r="K42" s="9">
-        <f t="shared" si="3"/>
-        <v>5882.3529411764703</v>
-      </c>
-      <c r="L42" s="9">
-        <f t="shared" si="4"/>
-        <v>30000</v>
+      <c r="J42" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="D43">
@@ -3397,38 +3671,38 @@
       <c r="E43" t="s">
         <v>51</v>
       </c>
-      <c r="F43" s="9">
-        <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="G43" s="9">
-        <f t="shared" si="7"/>
+      <c r="F43" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="1"/>
         <v>40000</v>
       </c>
-      <c r="H43" s="9">
-        <f t="shared" si="1"/>
+      <c r="H43" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I43" s="9">
-        <f t="shared" si="6"/>
+      <c r="I43" s="3">
+        <f t="shared" si="3"/>
         <v>80000</v>
       </c>
-      <c r="J43" s="9">
-        <f t="shared" si="2"/>
-        <v>25000</v>
-      </c>
-      <c r="K43" s="9">
-        <f t="shared" si="3"/>
-        <v>5882.3529411764703</v>
-      </c>
-      <c r="L43" s="9">
-        <f t="shared" si="4"/>
+      <c r="J43" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>81</v>
       </c>
       <c r="D44">
@@ -3437,38 +3711,38 @@
       <c r="E44" t="s">
         <v>52</v>
       </c>
-      <c r="F44" s="9">
-        <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="G44" s="9">
-        <f t="shared" si="7"/>
+      <c r="F44" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="1"/>
         <v>41000</v>
       </c>
-      <c r="H44" s="9">
-        <f t="shared" si="1"/>
+      <c r="H44" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I44" s="9">
-        <f t="shared" si="6"/>
+      <c r="I44" s="3">
+        <f t="shared" si="3"/>
         <v>81000</v>
       </c>
-      <c r="J44" s="9">
-        <f t="shared" si="2"/>
-        <v>25000</v>
-      </c>
-      <c r="K44" s="9">
-        <f t="shared" si="3"/>
-        <v>5882.3529411764703</v>
-      </c>
-      <c r="L44" s="9">
-        <f t="shared" si="4"/>
-        <v>30000</v>
+      <c r="J44" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>82</v>
       </c>
       <c r="D45">
@@ -3477,38 +3751,38 @@
       <c r="E45" t="s">
         <v>53</v>
       </c>
-      <c r="F45" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="9">
-        <f t="shared" si="7"/>
+      <c r="F45" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="1"/>
         <v>42000</v>
       </c>
-      <c r="H45" s="9">
-        <f t="shared" si="1"/>
+      <c r="H45" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I45" s="9">
-        <f t="shared" si="6"/>
+      <c r="I45" s="3">
+        <f t="shared" si="3"/>
         <v>82000</v>
       </c>
-      <c r="J45" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="9">
-        <f t="shared" si="4"/>
+      <c r="J45" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>83</v>
       </c>
       <c r="D46">
@@ -3517,38 +3791,38 @@
       <c r="E46" t="s">
         <v>54</v>
       </c>
-      <c r="F46" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="9">
-        <f t="shared" si="7"/>
+      <c r="F46" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="1"/>
         <v>43000</v>
       </c>
-      <c r="H46" s="9">
-        <f t="shared" si="1"/>
+      <c r="H46" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I46" s="9">
-        <f t="shared" si="6"/>
+      <c r="I46" s="3">
+        <f t="shared" si="3"/>
         <v>83000</v>
       </c>
-      <c r="J46" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="9">
-        <f t="shared" si="4"/>
+      <c r="J46" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>84</v>
       </c>
       <c r="D47">
@@ -3557,38 +3831,38 @@
       <c r="E47" t="s">
         <v>55</v>
       </c>
-      <c r="F47" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="9">
-        <f t="shared" si="7"/>
+      <c r="F47" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="1"/>
         <v>44000</v>
       </c>
-      <c r="H47" s="9">
-        <f t="shared" si="1"/>
+      <c r="H47" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I47" s="9">
-        <f t="shared" si="6"/>
+      <c r="I47" s="3">
+        <f t="shared" si="3"/>
         <v>84000</v>
       </c>
-      <c r="J47" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L47" s="9">
-        <f t="shared" si="4"/>
+      <c r="J47" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>85</v>
       </c>
       <c r="D48">
@@ -3597,38 +3871,38 @@
       <c r="E48" t="s">
         <v>56</v>
       </c>
-      <c r="F48" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="9">
-        <f t="shared" si="7"/>
+      <c r="F48" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="1"/>
         <v>45000</v>
       </c>
-      <c r="H48" s="9">
-        <f t="shared" si="1"/>
+      <c r="H48" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I48" s="9">
-        <f t="shared" si="6"/>
+      <c r="I48" s="3">
+        <f t="shared" si="3"/>
         <v>85000</v>
       </c>
-      <c r="J48" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L48" s="9">
-        <f t="shared" si="4"/>
+      <c r="J48" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>86</v>
       </c>
       <c r="D49">
@@ -3637,38 +3911,38 @@
       <c r="E49" t="s">
         <v>57</v>
       </c>
-      <c r="F49" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="9">
-        <f t="shared" si="7"/>
+      <c r="F49" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="1"/>
         <v>46000</v>
       </c>
-      <c r="H49" s="9">
-        <f t="shared" si="1"/>
+      <c r="H49" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I49" s="9">
-        <f t="shared" si="6"/>
+      <c r="I49" s="3">
+        <f t="shared" si="3"/>
         <v>86000</v>
       </c>
-      <c r="J49" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L49" s="9">
-        <f t="shared" si="4"/>
+      <c r="J49" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>87</v>
       </c>
       <c r="D50">
@@ -3677,38 +3951,38 @@
       <c r="E50" t="s">
         <v>58</v>
       </c>
-      <c r="F50" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="9">
-        <f t="shared" si="7"/>
+      <c r="F50" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="1"/>
         <v>47000</v>
       </c>
-      <c r="H50" s="9">
-        <f t="shared" si="1"/>
+      <c r="H50" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I50" s="9">
-        <f t="shared" si="6"/>
+      <c r="I50" s="3">
+        <f t="shared" si="3"/>
         <v>87000</v>
       </c>
-      <c r="J50" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L50" s="9">
-        <f t="shared" si="4"/>
+      <c r="J50" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>88</v>
       </c>
       <c r="D51">
@@ -3717,38 +3991,38 @@
       <c r="E51" t="s">
         <v>59</v>
       </c>
-      <c r="F51" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="9">
-        <f t="shared" si="7"/>
+      <c r="F51" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="1"/>
         <v>48000</v>
       </c>
-      <c r="H51" s="9">
-        <f t="shared" si="1"/>
+      <c r="H51" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I51" s="9">
-        <f t="shared" si="6"/>
+      <c r="I51" s="3">
+        <f t="shared" si="3"/>
         <v>88000</v>
       </c>
-      <c r="J51" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K51" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L51" s="9">
-        <f t="shared" si="4"/>
+      <c r="J51" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>89</v>
       </c>
       <c r="D52">
@@ -3757,38 +4031,38 @@
       <c r="E52" t="s">
         <v>60</v>
       </c>
-      <c r="F52" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="9">
-        <f t="shared" si="7"/>
+      <c r="F52" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="1"/>
         <v>49000</v>
       </c>
-      <c r="H52" s="9">
-        <f t="shared" si="1"/>
+      <c r="H52" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I52" s="9">
-        <f t="shared" si="6"/>
+      <c r="I52" s="3">
+        <f t="shared" si="3"/>
         <v>89000</v>
       </c>
-      <c r="J52" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L52" s="9">
-        <f t="shared" si="4"/>
+      <c r="J52" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="D53">
@@ -3797,38 +4071,38 @@
       <c r="E53" t="s">
         <v>61</v>
       </c>
-      <c r="F53" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="9">
-        <f t="shared" si="7"/>
+      <c r="F53" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="3">
+        <f t="shared" si="1"/>
         <v>50000</v>
       </c>
-      <c r="H53" s="9">
-        <f t="shared" si="1"/>
+      <c r="H53" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I53" s="9">
-        <f t="shared" si="6"/>
+      <c r="I53" s="3">
+        <f t="shared" si="3"/>
         <v>90000</v>
       </c>
-      <c r="J53" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K53" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L53" s="9">
-        <f t="shared" si="4"/>
+      <c r="J53" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>91</v>
       </c>
       <c r="D54">
@@ -3837,38 +4111,38 @@
       <c r="E54" t="s">
         <v>62</v>
       </c>
-      <c r="F54" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="9">
-        <f t="shared" si="7"/>
+      <c r="F54" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="1"/>
         <v>51000</v>
       </c>
-      <c r="H54" s="9">
-        <f t="shared" si="1"/>
+      <c r="H54" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I54" s="9">
-        <f t="shared" si="6"/>
+      <c r="I54" s="3">
+        <f t="shared" si="3"/>
         <v>91000</v>
       </c>
-      <c r="J54" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L54" s="9">
-        <f t="shared" si="4"/>
+      <c r="J54" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
       <c r="D55">
@@ -3877,38 +4151,38 @@
       <c r="E55" t="s">
         <v>63</v>
       </c>
-      <c r="F55" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="9">
-        <f t="shared" si="7"/>
+      <c r="F55" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="3">
+        <f t="shared" si="1"/>
         <v>52000</v>
       </c>
-      <c r="H55" s="9">
-        <f t="shared" si="1"/>
+      <c r="H55" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I55" s="9">
-        <f t="shared" si="6"/>
+      <c r="I55" s="3">
+        <f t="shared" si="3"/>
         <v>92000</v>
       </c>
-      <c r="J55" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K55" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L55" s="9">
-        <f t="shared" si="4"/>
+      <c r="J55" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>93</v>
       </c>
       <c r="D56">
@@ -3917,38 +4191,38 @@
       <c r="E56" t="s">
         <v>64</v>
       </c>
-      <c r="F56" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="9">
-        <f t="shared" si="7"/>
+      <c r="F56" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <f t="shared" si="1"/>
         <v>53000</v>
       </c>
-      <c r="H56" s="9">
-        <f t="shared" si="1"/>
+      <c r="H56" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I56" s="9">
-        <f t="shared" si="6"/>
+      <c r="I56" s="3">
+        <f t="shared" si="3"/>
         <v>93000</v>
       </c>
-      <c r="J56" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L56" s="9">
-        <f t="shared" si="4"/>
+      <c r="J56" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>94</v>
       </c>
       <c r="D57">
@@ -3957,38 +4231,38 @@
       <c r="E57" t="s">
         <v>65</v>
       </c>
-      <c r="F57" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="9">
-        <f t="shared" si="7"/>
+      <c r="F57" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <f t="shared" si="1"/>
         <v>54000</v>
       </c>
-      <c r="H57" s="9">
-        <f t="shared" si="1"/>
+      <c r="H57" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I57" s="9">
-        <f t="shared" si="6"/>
+      <c r="I57" s="3">
+        <f t="shared" si="3"/>
         <v>94000</v>
       </c>
-      <c r="J57" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L57" s="9">
-        <f t="shared" si="4"/>
+      <c r="J57" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>95</v>
       </c>
       <c r="D58">
@@ -3997,37 +4271,38 @@
       <c r="E58" t="s">
         <v>66</v>
       </c>
-      <c r="F58" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="9">
-        <v>0</v>
-      </c>
-      <c r="H58" s="9">
-        <f t="shared" si="1"/>
+      <c r="F58" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I58" s="9">
-        <f t="shared" si="6"/>
+      <c r="I58" s="3">
+        <f t="shared" si="3"/>
         <v>95000</v>
       </c>
-      <c r="J58" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L58" s="9">
-        <f t="shared" si="4"/>
+      <c r="J58" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>96</v>
       </c>
       <c r="D59">
@@ -4036,37 +4311,38 @@
       <c r="E59" t="s">
         <v>67</v>
       </c>
-      <c r="F59" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G59" s="9">
-        <v>0</v>
-      </c>
-      <c r="H59" s="9">
-        <f t="shared" si="1"/>
+      <c r="F59" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I59" s="9">
-        <f t="shared" si="6"/>
+      <c r="I59" s="3">
+        <f t="shared" si="3"/>
         <v>96000</v>
       </c>
-      <c r="J59" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K59" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L59" s="9">
-        <f t="shared" si="4"/>
+      <c r="J59" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>97</v>
       </c>
       <c r="D60">
@@ -4075,37 +4351,38 @@
       <c r="E60" t="s">
         <v>68</v>
       </c>
-      <c r="F60" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="9">
-        <v>0</v>
-      </c>
-      <c r="H60" s="9">
-        <f t="shared" si="1"/>
+      <c r="F60" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I60" s="9">
-        <f t="shared" si="6"/>
+      <c r="I60" s="3">
+        <f t="shared" si="3"/>
         <v>97000</v>
       </c>
-      <c r="J60" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L60" s="9">
-        <f t="shared" si="4"/>
+      <c r="J60" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>98</v>
       </c>
       <c r="D61">
@@ -4114,37 +4391,38 @@
       <c r="E61" t="s">
         <v>69</v>
       </c>
-      <c r="F61" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G61" s="9">
-        <v>0</v>
-      </c>
-      <c r="H61" s="9">
-        <f t="shared" si="1"/>
+      <c r="F61" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I61" s="9">
-        <f t="shared" si="6"/>
+      <c r="I61" s="3">
+        <f t="shared" si="3"/>
         <v>98000</v>
       </c>
-      <c r="J61" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K61" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L61" s="9">
-        <f t="shared" si="4"/>
+      <c r="J61" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>99</v>
       </c>
       <c r="D62">
@@ -4153,37 +4431,38 @@
       <c r="E62" t="s">
         <v>70</v>
       </c>
-      <c r="F62" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="9">
-        <v>0</v>
-      </c>
-      <c r="H62" s="9">
-        <f t="shared" si="1"/>
+      <c r="F62" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I62" s="9">
-        <f t="shared" si="6"/>
+      <c r="I62" s="3">
+        <f t="shared" si="3"/>
         <v>99000</v>
       </c>
-      <c r="J62" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K62" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L62" s="9">
-        <f t="shared" si="4"/>
+      <c r="J62" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="D63">
@@ -4192,37 +4471,38 @@
       <c r="E63" t="s">
         <v>71</v>
       </c>
-      <c r="F63" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="9">
-        <v>0</v>
-      </c>
-      <c r="H63" s="9">
-        <f t="shared" si="1"/>
+      <c r="F63" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I63" s="9">
-        <f t="shared" si="6"/>
+      <c r="I63" s="3">
+        <f t="shared" si="3"/>
         <v>100000</v>
       </c>
-      <c r="J63" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K63" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L63" s="9">
-        <f t="shared" si="4"/>
+      <c r="J63" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>101</v>
       </c>
       <c r="D64">
@@ -4231,36 +4511,38 @@
       <c r="E64" t="s">
         <v>72</v>
       </c>
-      <c r="F64" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="9">
-        <v>0</v>
-      </c>
-      <c r="H64" s="9">
-        <f t="shared" si="1"/>
+      <c r="F64" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I64" s="9">
-        <v>0</v>
-      </c>
-      <c r="J64" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K64" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L64" s="9">
-        <f t="shared" si="4"/>
+      <c r="I64" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>102</v>
       </c>
       <c r="D65">
@@ -4269,36 +4551,38 @@
       <c r="E65" t="s">
         <v>73</v>
       </c>
-      <c r="F65" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="9">
-        <v>0</v>
-      </c>
-      <c r="H65" s="9">
-        <f t="shared" si="1"/>
+      <c r="F65" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I65" s="9">
-        <v>0</v>
-      </c>
-      <c r="J65" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K65" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L65" s="9">
-        <f t="shared" si="4"/>
+      <c r="I65" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L65" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>103</v>
       </c>
       <c r="D66">
@@ -4307,36 +4591,38 @@
       <c r="E66" t="s">
         <v>74</v>
       </c>
-      <c r="F66" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G66" s="9">
-        <v>0</v>
-      </c>
-      <c r="H66" s="9">
-        <f t="shared" si="1"/>
+      <c r="F66" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I66" s="9">
-        <v>0</v>
-      </c>
-      <c r="J66" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K66" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L66" s="9">
-        <f t="shared" si="4"/>
+      <c r="I66" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L66" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>104</v>
       </c>
       <c r="D67">
@@ -4345,36 +4631,38 @@
       <c r="E67" t="s">
         <v>75</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F67" s="3">
         <f t="shared" ref="F67:F75" si="8">IF(AND($B$6+D67-1&gt;=$B$9, $B$6+D67-1&lt;$B$9+$B$3), 15000, 0)</f>
         <v>0</v>
       </c>
-      <c r="G67" s="9">
-        <v>0</v>
-      </c>
-      <c r="H67" s="9">
-        <f t="shared" si="1"/>
+      <c r="G67" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="3">
+        <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="I67" s="9">
-        <v>0</v>
-      </c>
-      <c r="J67" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K67" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L67" s="9">
-        <f t="shared" si="4"/>
+      <c r="I67" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L67" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>105</v>
       </c>
       <c r="D68">
@@ -4383,36 +4671,38 @@
       <c r="E68" t="s">
         <v>76</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F68" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G68" s="9">
-        <v>0</v>
-      </c>
-      <c r="H68" s="9">
-        <f t="shared" ref="H68:H73" si="9">IF(C68&lt;$B$9,0,7200)</f>
+      <c r="G68" s="3">
+        <f t="shared" ref="G68:G75" si="9">IF(OR(C68&lt;65,C68&gt;94),0, 25000+((C68-65)*1000))</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="3">
+        <f t="shared" ref="H68:H73" si="10">IF(C68&lt;$B$9,0,7200)</f>
         <v>7200</v>
       </c>
-      <c r="I68" s="9">
-        <v>0</v>
-      </c>
-      <c r="J68" s="9">
-        <f t="shared" ref="J68:J75" si="10">IF(C68&lt;$B$9, 0, IF(C68&lt;$B$9+($B$3/2), 19000, IF(C68&lt;$B$9+$B$3,25000,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="K68" s="9">
-        <f t="shared" ref="K68:K75" si="11">IF(OR(C68&lt;$B$9,C68&gt;$B$9+$B$3-1),0,100000/$B$3)</f>
-        <v>0</v>
-      </c>
-      <c r="L68" s="9">
-        <f t="shared" ref="L68:L75" si="12">IF(OR(C68=$B$9, AND(ISEVEN(C68-$B$9), C68&gt;$B$9, C68&lt;($B$9+$B$3))),30000,0)</f>
+      <c r="I68" s="3">
+        <f t="shared" ref="I68:I75" si="11">IF(OR(C68&lt;60, C68&gt;100), 0, C68*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="3">
+        <f t="shared" ref="J68:J75" si="12">IF(C68&lt;$B$9, 0, IF(C68&lt;$B$9+($B$3/2), 19000, IF(C68&lt;$B$9+$B$3,25000,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K68" s="3">
+        <f t="shared" ref="K68:K75" si="13">IF(OR(C68&lt;$B$9,C68&gt;$B$9+$B$3-1),0,100000/$B$3)</f>
+        <v>0</v>
+      </c>
+      <c r="L68" s="3">
+        <f t="shared" ref="L68:L75" si="14">IF(OR(C68=$B$9, AND(ISEVEN(C68-$B$9), C68&gt;$B$9, C68&lt;($B$9+$B$3))),30000,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C69">
-        <f t="shared" ref="C69:C75" si="13">C68+1</f>
+        <f t="shared" ref="C69:C75" si="15">C68+1</f>
         <v>106</v>
       </c>
       <c r="D69">
@@ -4421,36 +4711,38 @@
       <c r="E69" t="s">
         <v>77</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F69" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G69" s="9">
-        <v>0</v>
-      </c>
-      <c r="H69" s="9">
+      <c r="G69" s="3">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="3">
+        <f t="shared" si="10"/>
         <v>7200</v>
       </c>
-      <c r="I69" s="9">
-        <v>0</v>
-      </c>
-      <c r="J69" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K69" s="9">
+      <c r="I69" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L69" s="9">
+      <c r="J69" s="3">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K69" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L69" s="3">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>107</v>
       </c>
       <c r="D70">
@@ -4459,36 +4751,38 @@
       <c r="E70" t="s">
         <v>78</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F70" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G70" s="9">
-        <v>0</v>
-      </c>
-      <c r="H70" s="9">
+      <c r="G70" s="3">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <f t="shared" si="10"/>
         <v>7200</v>
       </c>
-      <c r="I70" s="9">
-        <v>0</v>
-      </c>
-      <c r="J70" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K70" s="9">
+      <c r="I70" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L70" s="9">
+      <c r="J70" s="3">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C71">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>108</v>
       </c>
       <c r="D71">
@@ -4497,36 +4791,38 @@
       <c r="E71" t="s">
         <v>79</v>
       </c>
-      <c r="F71" s="9">
+      <c r="F71" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G71" s="9">
-        <v>0</v>
-      </c>
-      <c r="H71" s="9">
+      <c r="G71" s="3">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="3">
+        <f t="shared" si="10"/>
         <v>7200</v>
       </c>
-      <c r="I71" s="9">
-        <v>0</v>
-      </c>
-      <c r="J71" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K71" s="9">
+      <c r="I71" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L71" s="9">
+      <c r="J71" s="3">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K71" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="3">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C72">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>109</v>
       </c>
       <c r="D72">
@@ -4535,36 +4831,38 @@
       <c r="E72" t="s">
         <v>80</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F72" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G72" s="9">
-        <v>0</v>
-      </c>
-      <c r="H72" s="9">
+      <c r="G72" s="3">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
+        <f t="shared" si="10"/>
         <v>7200</v>
       </c>
-      <c r="I72" s="9">
-        <v>0</v>
-      </c>
-      <c r="J72" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K72" s="9">
+      <c r="I72" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L72" s="9">
+      <c r="J72" s="3">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="3">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>110</v>
       </c>
       <c r="D73">
@@ -4573,36 +4871,38 @@
       <c r="E73" t="s">
         <v>81</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F73" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G73" s="9">
-        <v>0</v>
-      </c>
-      <c r="H73" s="9">
+      <c r="G73" s="3">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H73" s="3">
+        <f t="shared" si="10"/>
         <v>7200</v>
       </c>
-      <c r="I73" s="9">
-        <v>0</v>
-      </c>
-      <c r="J73" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K73" s="9">
+      <c r="I73" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L73" s="9">
+      <c r="J73" s="3">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K73" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L73" s="3">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>111</v>
       </c>
       <c r="D74">
@@ -4611,35 +4911,37 @@
       <c r="E74" t="s">
         <v>82</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F74" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G74" s="9">
-        <v>0</v>
-      </c>
-      <c r="H74" s="9">
-        <v>0</v>
-      </c>
-      <c r="I74" s="9">
-        <v>0</v>
-      </c>
-      <c r="J74" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K74" s="9">
+      <c r="G74" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H74" s="3">
+        <v>0</v>
+      </c>
+      <c r="I74" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L74" s="9">
+      <c r="J74" s="3">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K74" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L74" s="3">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>112</v>
       </c>
       <c r="D75">
@@ -4648,29 +4950,31 @@
       <c r="E75" t="s">
         <v>83</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F75" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G75" s="9">
-        <v>0</v>
-      </c>
-      <c r="H75" s="9">
-        <v>0</v>
-      </c>
-      <c r="I75" s="9">
-        <v>0</v>
-      </c>
-      <c r="J75" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K75" s="9">
+      <c r="G75" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H75" s="3">
+        <v>0</v>
+      </c>
+      <c r="I75" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L75" s="9">
+      <c r="J75" s="3">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K75" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L75" s="3">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>

--- a/Actuarial_Annuity_Calculator.xlsx
+++ b/Actuarial_Annuity_Calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Documents\Actuary\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C89F5B9-FC76-43C7-85C0-381DB30B3EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B736FAF8-EA86-4BF8-A98B-C94D575A4343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DEF2D046-47D8-47A7-A088-BE1834AA0769}"/>
   </bookViews>
@@ -434,10 +434,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -446,16 +446,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -776,7 +776,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -786,30 +788,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
@@ -831,36 +833,36 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <f>B9</f>
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" s="3">
         <f>_xlfn.IFNA(IF(E6="", "",HLOOKUP($B$6, 'Plan Calculations'!F2:L75, E6+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
+        <v>25000</v>
+      </c>
+      <c r="H6" s="10">
         <f>SUM(F6:F105)</f>
-        <v>3280000</v>
-      </c>
-      <c r="I6" s="9"/>
+        <v>1026000</v>
+      </c>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D7">
         <f>IF(E7="", "", D6+1)</f>
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7" s="3">
         <f>_xlfn.IFNA(IF(E7="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E7+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -869,14 +871,14 @@
       </c>
       <c r="D8">
         <f t="shared" ref="D8:D71" si="0">IF(E8="", "", D7+1)</f>
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8" s="3">
         <f>_xlfn.IFNA(IF(E8="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E8+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>89</v>
@@ -885,36 +887,36 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="E9">
         <v>4</v>
       </c>
       <c r="F9" s="3">
         <f>_xlfn.IFNA(IF(E9="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E9+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="10">
+        <v>28000</v>
+      </c>
+      <c r="H9" s="4">
         <f>COUNTIF(F6:F105, "&gt;0")</f>
-        <v>41</v>
-      </c>
-      <c r="I9" s="11"/>
+        <v>27</v>
+      </c>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="E10">
         <v>5</v>
       </c>
       <c r="F10" s="3">
         <f>_xlfn.IFNA(IF(E10="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E10+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
@@ -924,14 +926,14 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="E11">
         <v>6</v>
       </c>
       <c r="F11" s="3">
         <f>_xlfn.IFNA(IF(E11="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E11+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>90</v>
@@ -944,32 +946,32 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="E12">
         <v>7</v>
       </c>
       <c r="F12" s="3">
         <f>_xlfn.IFNA(IF(E12="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E12+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="10">
+        <v>31000</v>
+      </c>
+      <c r="H12" s="4">
         <f>IF(OR(B6="Plan #1", B6="plan #5", B6="plan #6", B6="plan #7"), B12+B15-1, IF(B6="Plan #2", 94, IF(B6="Plan #3", 110, 100)))</f>
-        <v>100</v>
-      </c>
-      <c r="I12" s="11"/>
+        <v>94</v>
+      </c>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="E13">
         <v>8</v>
       </c>
       <c r="F13" s="3">
         <f>_xlfn.IFNA(IF(E13="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E13+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -979,14 +981,14 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="E14">
         <v>9</v>
       </c>
       <c r="F14" s="3">
         <f>_xlfn.IFNA(IF(E14="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E14+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
@@ -995,683 +997,683 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="E15">
         <v>10</v>
       </c>
       <c r="F15" s="3">
         <f>_xlfn.IFNA(IF(E15="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E15+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="E16">
         <v>11</v>
       </c>
       <c r="F16" s="3">
         <f>_xlfn.IFNA(IF(E16="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E16+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="E17">
         <v>12</v>
       </c>
       <c r="F17" s="3">
         <f>_xlfn.IFNA(IF(E17="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E17+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="E18">
         <v>13</v>
       </c>
       <c r="F18" s="3">
         <f>_xlfn.IFNA(IF(E18="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E18+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="E19">
         <v>14</v>
       </c>
       <c r="F19" s="3">
         <f>_xlfn.IFNA(IF(E19="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E19+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="E20">
         <v>15</v>
       </c>
       <c r="F20" s="3">
         <f>_xlfn.IFNA(IF(E20="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E20+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="E21">
         <v>16</v>
       </c>
       <c r="F21" s="3">
         <f>_xlfn.IFNA(IF(E21="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E21+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="E22">
         <v>17</v>
       </c>
       <c r="F22" s="3">
         <f>_xlfn.IFNA(IF(E22="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E22+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>41000</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="E23">
         <v>18</v>
       </c>
       <c r="F23" s="3">
         <f>_xlfn.IFNA(IF(E23="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E23+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="E24">
         <v>19</v>
       </c>
       <c r="F24" s="3">
         <f>_xlfn.IFNA(IF(E24="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E24+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>43000</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="E25">
         <v>20</v>
       </c>
       <c r="F25" s="3">
         <f>_xlfn.IFNA(IF(E25="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E25+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="E26">
         <v>21</v>
       </c>
       <c r="F26" s="3">
         <f>_xlfn.IFNA(IF(E26="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E26+1, FALSE)), "Something is wrong")</f>
-        <v>60000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="E27">
         <v>22</v>
       </c>
       <c r="F27" s="3">
         <f>_xlfn.IFNA(IF(E27="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E27+1, FALSE)), "Something is wrong")</f>
-        <v>61000</v>
+        <v>46000</v>
       </c>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="E28">
         <v>23</v>
       </c>
       <c r="F28" s="3">
         <f>_xlfn.IFNA(IF(E28="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E28+1, FALSE)), "Something is wrong")</f>
-        <v>62000</v>
+        <v>47000</v>
       </c>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="E29">
         <v>24</v>
       </c>
       <c r="F29" s="3">
         <f>_xlfn.IFNA(IF(E29="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E29+1, FALSE)), "Something is wrong")</f>
-        <v>63000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E30">
         <v>25</v>
       </c>
       <c r="F30" s="3">
         <f>_xlfn.IFNA(IF(E30="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E30+1, FALSE)), "Something is wrong")</f>
-        <v>64000</v>
+        <v>49000</v>
       </c>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="E31">
         <v>26</v>
       </c>
       <c r="F31" s="3">
         <f>_xlfn.IFNA(IF(E31="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E31+1, FALSE)), "Something is wrong")</f>
-        <v>65000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="E32">
         <v>27</v>
       </c>
       <c r="F32" s="3">
         <f>_xlfn.IFNA(IF(E32="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E32+1, FALSE)), "Something is wrong")</f>
-        <v>66000</v>
+        <v>51000</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="E33">
         <v>28</v>
       </c>
       <c r="F33" s="3">
         <f>_xlfn.IFNA(IF(E33="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E33+1, FALSE)), "Something is wrong")</f>
-        <v>67000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="E34">
         <v>29</v>
       </c>
       <c r="F34" s="3">
         <f>_xlfn.IFNA(IF(E34="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E34+1, FALSE)), "Something is wrong")</f>
-        <v>68000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="E35">
         <v>30</v>
       </c>
       <c r="F35" s="3">
         <f>_xlfn.IFNA(IF(E35="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E35+1, FALSE)), "Something is wrong")</f>
-        <v>69000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="E36">
         <v>31</v>
       </c>
       <c r="F36" s="3">
         <f>_xlfn.IFNA(IF(E36="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E36+1, FALSE)), "Something is wrong")</f>
-        <v>70000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="E37">
         <v>32</v>
       </c>
       <c r="F37" s="3">
         <f>_xlfn.IFNA(IF(E37="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E37+1, FALSE)), "Something is wrong")</f>
-        <v>71000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E38">
         <v>33</v>
       </c>
       <c r="F38" s="3">
         <f>_xlfn.IFNA(IF(E38="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E38+1, FALSE)), "Something is wrong")</f>
-        <v>72000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="E39">
         <v>34</v>
       </c>
       <c r="F39" s="3">
         <f>_xlfn.IFNA(IF(E39="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E39+1, FALSE)), "Something is wrong")</f>
-        <v>73000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="E40">
         <v>35</v>
       </c>
       <c r="F40" s="3">
         <f>_xlfn.IFNA(IF(E40="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E40+1, FALSE)), "Something is wrong")</f>
-        <v>74000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="E41">
         <v>36</v>
       </c>
       <c r="F41" s="3">
         <f>_xlfn.IFNA(IF(E41="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E41+1, FALSE)), "Something is wrong")</f>
-        <v>75000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="E42">
         <v>37</v>
       </c>
       <c r="F42" s="3">
         <f>_xlfn.IFNA(IF(E42="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E42+1, FALSE)), "Something is wrong")</f>
-        <v>76000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="E43">
         <v>38</v>
       </c>
       <c r="F43" s="3">
         <f>_xlfn.IFNA(IF(E43="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E43+1, FALSE)), "Something is wrong")</f>
-        <v>77000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="E44">
         <v>39</v>
       </c>
       <c r="F44" s="3">
         <f>_xlfn.IFNA(IF(E44="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E44+1, FALSE)), "Something is wrong")</f>
-        <v>78000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="E45">
         <v>40</v>
       </c>
       <c r="F45" s="3">
         <f>_xlfn.IFNA(IF(E45="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E45+1, FALSE)), "Something is wrong")</f>
-        <v>79000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="E46">
         <v>41</v>
       </c>
       <c r="F46" s="3">
         <f>_xlfn.IFNA(IF(E46="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E46+1, FALSE)), "Something is wrong")</f>
-        <v>80000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D47">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="E47">
         <v>42</v>
       </c>
       <c r="F47" s="3">
         <f>_xlfn.IFNA(IF(E47="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E47+1, FALSE)), "Something is wrong")</f>
-        <v>81000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E48">
         <v>43</v>
       </c>
       <c r="F48" s="3">
         <f>_xlfn.IFNA(IF(E48="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E48+1, FALSE)), "Something is wrong")</f>
-        <v>82000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D49">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="E49">
         <v>44</v>
       </c>
       <c r="F49" s="3">
         <f>_xlfn.IFNA(IF(E49="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E49+1, FALSE)), "Something is wrong")</f>
-        <v>83000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D50">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="E50">
         <v>45</v>
       </c>
       <c r="F50" s="3">
         <f>_xlfn.IFNA(IF(E50="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E50+1, FALSE)), "Something is wrong")</f>
-        <v>84000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D51">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E51">
         <v>46</v>
       </c>
       <c r="F51" s="3">
         <f>_xlfn.IFNA(IF(E51="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E51+1, FALSE)), "Something is wrong")</f>
-        <v>85000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D52">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="E52">
         <v>47</v>
       </c>
       <c r="F52" s="3">
         <f>_xlfn.IFNA(IF(E52="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E52+1, FALSE)), "Something is wrong")</f>
-        <v>86000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D53">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="E53">
         <v>48</v>
       </c>
       <c r="F53" s="3">
         <f>_xlfn.IFNA(IF(E53="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E53+1, FALSE)), "Something is wrong")</f>
-        <v>87000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D54">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="E54">
         <v>49</v>
       </c>
       <c r="F54" s="3">
         <f>_xlfn.IFNA(IF(E54="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E54+1, FALSE)), "Something is wrong")</f>
-        <v>88000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D55">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E55">
         <v>50</v>
       </c>
       <c r="F55" s="3">
         <f>_xlfn.IFNA(IF(E55="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E55+1, FALSE)), "Something is wrong")</f>
-        <v>89000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D56">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="E56">
         <v>51</v>
       </c>
       <c r="F56" s="3">
         <f>_xlfn.IFNA(IF(E56="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E56+1, FALSE)), "Something is wrong")</f>
-        <v>90000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D57">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="E57">
         <v>52</v>
       </c>
       <c r="F57" s="3">
         <f>_xlfn.IFNA(IF(E57="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E57+1, FALSE)), "Something is wrong")</f>
-        <v>91000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D58">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="E58">
         <v>53</v>
       </c>
       <c r="F58" s="3">
         <f>_xlfn.IFNA(IF(E58="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E58+1, FALSE)), "Something is wrong")</f>
-        <v>92000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D59">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="E59">
         <v>54</v>
       </c>
       <c r="F59" s="3">
         <f>_xlfn.IFNA(IF(E59="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E59+1, FALSE)), "Something is wrong")</f>
-        <v>93000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D60">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="E60">
         <v>55</v>
       </c>
       <c r="F60" s="3">
         <f>_xlfn.IFNA(IF(E60="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E60+1, FALSE)), "Something is wrong")</f>
-        <v>94000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D61">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="E61">
         <v>56</v>
       </c>
       <c r="F61" s="3">
         <f>_xlfn.IFNA(IF(E61="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E61+1, FALSE)), "Something is wrong")</f>
-        <v>95000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D62">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="E62">
         <v>57</v>
       </c>
       <c r="F62" s="3">
         <f>_xlfn.IFNA(IF(E62="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E62+1, FALSE)), "Something is wrong")</f>
-        <v>96000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D63">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="E63">
         <v>58</v>
       </c>
       <c r="F63" s="3">
         <f>_xlfn.IFNA(IF(E63="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E63+1, FALSE)), "Something is wrong")</f>
-        <v>97000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D64">
         <f t="shared" si="0"/>
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="E64">
         <v>59</v>
       </c>
       <c r="F64" s="3">
         <f>_xlfn.IFNA(IF(E64="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E64+1, FALSE)), "Something is wrong")</f>
-        <v>98000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D65">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="E65">
         <v>60</v>
       </c>
       <c r="F65" s="3">
         <f>_xlfn.IFNA(IF(E65="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E65+1, FALSE)), "Something is wrong")</f>
-        <v>99000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D66">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="E66">
         <v>61</v>
       </c>
       <c r="F66" s="3">
         <f>_xlfn.IFNA(IF(E66="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E66+1, FALSE)), "Something is wrong")</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D67">
         <f t="shared" si="0"/>
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="E67">
         <v>62</v>
@@ -1684,7 +1686,7 @@
     <row r="68" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D68">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="E68">
         <v>63</v>
@@ -1697,7 +1699,7 @@
     <row r="69" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D69">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="E69">
         <v>64</v>
@@ -1710,7 +1712,7 @@
     <row r="70" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D70">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="E70">
         <v>65</v>
@@ -1723,7 +1725,7 @@
     <row r="71" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D71">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="E71">
         <v>66</v>
@@ -1736,7 +1738,7 @@
     <row r="72" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D72">
         <f t="shared" ref="D72:D105" si="1">IF(E72="", "", D71+1)</f>
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="E72">
         <v>67</v>
@@ -1749,7 +1751,7 @@
     <row r="73" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D73">
         <f t="shared" si="1"/>
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="E73">
         <v>68</v>
@@ -1762,7 +1764,7 @@
     <row r="74" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D74">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="E74">
         <v>69</v>
@@ -1775,7 +1777,7 @@
     <row r="75" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D75">
         <f t="shared" si="1"/>
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="E75">
         <v>70</v>
@@ -1788,7 +1790,7 @@
     <row r="76" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D76">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="E76">
         <v>71</v>
@@ -2004,7 +2006,7 @@
   <dimension ref="B2:L75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G75"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2049,7 +2051,7 @@
       </c>
       <c r="C3">
         <f>B6</f>
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2062,8 +2064,8 @@
         <v>0</v>
       </c>
       <c r="G3" s="3">
-        <f>IF(OR(C3&lt;65,C3&gt;94),0, 25000+((C3-65)*1000))</f>
-        <v>0</v>
+        <f>IF($C$3&gt;=65,IF(C3&gt;94,0,25000+((D3-1)*1000)),IF(OR(C3&lt;65,C3&gt;94),0,25000+((C3-65)*1000)))</f>
+        <v>25000</v>
       </c>
       <c r="H3" s="3">
         <f>IF(C3&lt;$B$9,0,7200)</f>
@@ -2071,7 +2073,7 @@
       </c>
       <c r="I3" s="3">
         <f>IF(OR(C3&lt;60, C3&gt;100), 0, C3*1000)</f>
-        <v>0</v>
+        <v>68000</v>
       </c>
       <c r="J3" s="3">
         <f>IF(C3&lt;$B$9, 0, IF(C3&lt;$B$9+($B$3/2), 19000, IF(C3&lt;$B$9+$B$3,25000,0)))</f>
@@ -2089,7 +2091,7 @@
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C4">
         <f>C3+1</f>
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -2102,8 +2104,8 @@
         <v>0</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ref="G4:G67" si="1">IF(OR(C4&lt;65,C4&gt;94),0, 25000+((C4-65)*1000))</f>
-        <v>0</v>
+        <f t="shared" ref="G4:G67" si="1">IF($C$3&gt;=65,IF(C4&gt;94,0,25000+((D4-1)*1000)),IF(OR(C4&lt;65,C4&gt;94),0,25000+((C4-65)*1000)))</f>
+        <v>26000</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ref="H4:H67" si="2">IF(C4&lt;$B$9,0,7200)</f>
@@ -2111,7 +2113,7 @@
       </c>
       <c r="I4" s="3">
         <f t="shared" ref="I4:I67" si="3">IF(OR(C4&lt;60, C4&gt;100), 0, C4*1000)</f>
-        <v>0</v>
+        <v>69000</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" ref="J4:J67" si="4">IF(C4&lt;$B$9, 0, IF(C4&lt;$B$9+($B$3/2), 19000, IF(C4&lt;$B$9+$B$3,25000,0)))</f>
@@ -2132,7 +2134,7 @@
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="7">C4+1</f>
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -2142,41 +2144,41 @@
       </c>
       <c r="F5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>14285.714285714286</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>'Illustration Calculator'!B9</f>
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C6">
         <f t="shared" si="7"/>
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -2186,27 +2188,27 @@
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28000</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>71000</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>14285.714285714286</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" si="6"/>
@@ -2216,7 +2218,7 @@
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C7">
         <f t="shared" si="7"/>
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -2226,31 +2228,31 @@
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29000</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>14285.714285714286</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -2259,7 +2261,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="7"/>
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -2269,27 +2271,27 @@
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>73000</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>14285.714285714286</v>
       </c>
       <c r="L8" s="3">
         <f t="shared" si="6"/>
@@ -2303,7 +2305,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="7"/>
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -2313,37 +2315,37 @@
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>31000</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>74000</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>14285.714285714286</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C10">
         <f t="shared" si="7"/>
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -2353,27 +2355,27 @@
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>32000</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>14285.714285714286</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="6"/>
@@ -2383,7 +2385,7 @@
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C11">
         <f t="shared" si="7"/>
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -2393,37 +2395,37 @@
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>33000</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>76000</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>14285.714285714286</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C12">
         <f t="shared" si="7"/>
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -2437,15 +2439,15 @@
       </c>
       <c r="G12" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>34000</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>77000</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="4"/>
@@ -2463,7 +2465,7 @@
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C13">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="D13">
         <v>11</v>
@@ -2477,15 +2479,15 @@
       </c>
       <c r="G13" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>78000</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="4"/>
@@ -2503,7 +2505,7 @@
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C14">
         <f t="shared" si="7"/>
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="D14">
         <v>12</v>
@@ -2517,15 +2519,15 @@
       </c>
       <c r="G14" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36000</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>79000</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="4"/>
@@ -2543,7 +2545,7 @@
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C15">
         <f t="shared" si="7"/>
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="D15">
         <v>13</v>
@@ -2557,15 +2559,15 @@
       </c>
       <c r="G15" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37000</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="4"/>
@@ -2583,7 +2585,7 @@
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C16">
         <f t="shared" si="7"/>
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="D16">
         <v>14</v>
@@ -2597,15 +2599,15 @@
       </c>
       <c r="G16" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38000</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>81000</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="4"/>
@@ -2623,7 +2625,7 @@
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17">
         <f t="shared" si="7"/>
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="D17">
         <v>15</v>
@@ -2637,15 +2639,15 @@
       </c>
       <c r="G17" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39000</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>82000</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="4"/>
@@ -2663,7 +2665,7 @@
     <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18">
         <f t="shared" si="7"/>
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D18">
         <v>16</v>
@@ -2677,15 +2679,15 @@
       </c>
       <c r="G18" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>83000</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="4"/>
@@ -2703,7 +2705,7 @@
     <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19">
         <f t="shared" si="7"/>
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D19">
         <v>17</v>
@@ -2717,15 +2719,15 @@
       </c>
       <c r="G19" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41000</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>84000</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="4"/>
@@ -2743,7 +2745,7 @@
     <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20">
         <f t="shared" si="7"/>
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="D20">
         <v>18</v>
@@ -2757,15 +2759,15 @@
       </c>
       <c r="G20" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>42000</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>85000</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" si="4"/>
@@ -2783,7 +2785,7 @@
     <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21">
         <f t="shared" si="7"/>
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="D21">
         <v>19</v>
@@ -2797,15 +2799,15 @@
       </c>
       <c r="G21" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>43000</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>86000</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="4"/>
@@ -2823,7 +2825,7 @@
     <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22">
         <f t="shared" si="7"/>
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="D22">
         <v>20</v>
@@ -2837,15 +2839,15 @@
       </c>
       <c r="G22" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44000</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>87000</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" si="4"/>
@@ -2863,7 +2865,7 @@
     <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23">
         <f t="shared" si="7"/>
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="D23">
         <v>21</v>
@@ -2877,15 +2879,15 @@
       </c>
       <c r="G23" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>45000</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="3"/>
-        <v>60000</v>
+        <v>88000</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" si="4"/>
@@ -2903,7 +2905,7 @@
     <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" si="7"/>
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="D24">
         <v>22</v>
@@ -2917,15 +2919,15 @@
       </c>
       <c r="G24" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>46000</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="3"/>
-        <v>61000</v>
+        <v>89000</v>
       </c>
       <c r="J24" s="3">
         <f t="shared" si="4"/>
@@ -2943,7 +2945,7 @@
     <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" si="7"/>
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="D25">
         <v>23</v>
@@ -2957,15 +2959,15 @@
       </c>
       <c r="G25" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>47000</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="3"/>
-        <v>62000</v>
+        <v>90000</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="4"/>
@@ -2983,7 +2985,7 @@
     <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" si="7"/>
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="D26">
         <v>24</v>
@@ -2997,15 +2999,15 @@
       </c>
       <c r="G26" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="3"/>
-        <v>63000</v>
+        <v>91000</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="4"/>
@@ -3023,7 +3025,7 @@
     <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="7"/>
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="D27">
         <v>25</v>
@@ -3037,15 +3039,15 @@
       </c>
       <c r="G27" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>49000</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="3"/>
-        <v>64000</v>
+        <v>92000</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" si="4"/>
@@ -3063,7 +3065,7 @@
     <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="7"/>
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D28">
         <v>26</v>
@@ -3077,15 +3079,15 @@
       </c>
       <c r="G28" s="3">
         <f t="shared" si="1"/>
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="3"/>
-        <v>65000</v>
+        <v>93000</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" si="4"/>
@@ -3103,7 +3105,7 @@
     <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="7"/>
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D29">
         <v>27</v>
@@ -3117,15 +3119,15 @@
       </c>
       <c r="G29" s="3">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>51000</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="3"/>
-        <v>66000</v>
+        <v>94000</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="4"/>
@@ -3143,7 +3145,7 @@
     <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="7"/>
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="D30">
         <v>28</v>
@@ -3157,15 +3159,15 @@
       </c>
       <c r="G30" s="3">
         <f t="shared" si="1"/>
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="H30" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" si="3"/>
-        <v>67000</v>
+        <v>95000</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" si="4"/>
@@ -3183,7 +3185,7 @@
     <row r="31" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="7"/>
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="D31">
         <v>29</v>
@@ -3197,15 +3199,15 @@
       </c>
       <c r="G31" s="3">
         <f t="shared" si="1"/>
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="H31" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="I31" s="3">
         <f t="shared" si="3"/>
-        <v>68000</v>
+        <v>96000</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" si="4"/>
@@ -3223,7 +3225,7 @@
     <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="7"/>
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="D32">
         <v>30</v>
@@ -3237,15 +3239,15 @@
       </c>
       <c r="G32" s="3">
         <f t="shared" si="1"/>
-        <v>29000</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="3"/>
-        <v>69000</v>
+        <v>97000</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" si="4"/>
@@ -3263,7 +3265,7 @@
     <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="7"/>
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D33">
         <v>31</v>
@@ -3273,11 +3275,11 @@
       </c>
       <c r="F33" s="3">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="1"/>
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" si="2"/>
@@ -3285,25 +3287,25 @@
       </c>
       <c r="I33" s="3">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>98000</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" si="4"/>
-        <v>19000</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <f t="shared" si="5"/>
-        <v>14285.714285714286</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
         <f t="shared" si="6"/>
-        <v>30000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" si="7"/>
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D34">
         <v>32</v>
@@ -3313,11 +3315,11 @@
       </c>
       <c r="F34" s="3">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G34" s="3">
         <f t="shared" si="1"/>
-        <v>31000</v>
+        <v>0</v>
       </c>
       <c r="H34" s="3">
         <f t="shared" si="2"/>
@@ -3325,15 +3327,15 @@
       </c>
       <c r="I34" s="3">
         <f t="shared" si="3"/>
-        <v>71000</v>
+        <v>99000</v>
       </c>
       <c r="J34" s="3">
         <f t="shared" si="4"/>
-        <v>19000</v>
+        <v>0</v>
       </c>
       <c r="K34" s="3">
         <f t="shared" si="5"/>
-        <v>14285.714285714286</v>
+        <v>0</v>
       </c>
       <c r="L34" s="3">
         <f t="shared" si="6"/>
@@ -3343,7 +3345,7 @@
     <row r="35" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" si="7"/>
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="D35">
         <v>33</v>
@@ -3353,11 +3355,11 @@
       </c>
       <c r="F35" s="3">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="1"/>
-        <v>32000</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" si="2"/>
@@ -3365,25 +3367,25 @@
       </c>
       <c r="I35" s="3">
         <f t="shared" si="3"/>
-        <v>72000</v>
+        <v>100000</v>
       </c>
       <c r="J35" s="3">
         <f t="shared" si="4"/>
-        <v>19000</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <f t="shared" si="5"/>
-        <v>14285.714285714286</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
         <f t="shared" si="6"/>
-        <v>30000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C36">
         <f t="shared" si="7"/>
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D36">
         <v>34</v>
@@ -3393,11 +3395,11 @@
       </c>
       <c r="F36" s="3">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G36" s="3">
         <f t="shared" si="1"/>
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="H36" s="3">
         <f t="shared" si="2"/>
@@ -3405,15 +3407,15 @@
       </c>
       <c r="I36" s="3">
         <f t="shared" si="3"/>
-        <v>73000</v>
+        <v>0</v>
       </c>
       <c r="J36" s="3">
         <f t="shared" si="4"/>
-        <v>19000</v>
+        <v>0</v>
       </c>
       <c r="K36" s="3">
         <f t="shared" si="5"/>
-        <v>14285.714285714286</v>
+        <v>0</v>
       </c>
       <c r="L36" s="3">
         <f t="shared" si="6"/>
@@ -3423,7 +3425,7 @@
     <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C37">
         <f t="shared" si="7"/>
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D37">
         <v>35</v>
@@ -3433,11 +3435,11 @@
       </c>
       <c r="F37" s="3">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G37" s="3">
         <f t="shared" si="1"/>
-        <v>34000</v>
+        <v>0</v>
       </c>
       <c r="H37" s="3">
         <f t="shared" si="2"/>
@@ -3445,25 +3447,25 @@
       </c>
       <c r="I37" s="3">
         <f t="shared" si="3"/>
-        <v>74000</v>
+        <v>0</v>
       </c>
       <c r="J37" s="3">
         <f t="shared" si="4"/>
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="K37" s="3">
         <f t="shared" si="5"/>
-        <v>14285.714285714286</v>
+        <v>0</v>
       </c>
       <c r="L37" s="3">
         <f t="shared" si="6"/>
-        <v>30000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C38">
         <f t="shared" si="7"/>
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="D38">
         <v>36</v>
@@ -3473,11 +3475,11 @@
       </c>
       <c r="F38" s="3">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G38" s="3">
         <f t="shared" si="1"/>
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="H38" s="3">
         <f t="shared" si="2"/>
@@ -3485,15 +3487,15 @@
       </c>
       <c r="I38" s="3">
         <f t="shared" si="3"/>
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="J38" s="3">
         <f t="shared" si="4"/>
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="K38" s="3">
         <f t="shared" si="5"/>
-        <v>14285.714285714286</v>
+        <v>0</v>
       </c>
       <c r="L38" s="3">
         <f t="shared" si="6"/>
@@ -3503,7 +3505,7 @@
     <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C39">
         <f t="shared" si="7"/>
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D39">
         <v>37</v>
@@ -3513,11 +3515,11 @@
       </c>
       <c r="F39" s="3">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G39" s="3">
         <f t="shared" si="1"/>
-        <v>36000</v>
+        <v>0</v>
       </c>
       <c r="H39" s="3">
         <f t="shared" si="2"/>
@@ -3525,25 +3527,25 @@
       </c>
       <c r="I39" s="3">
         <f t="shared" si="3"/>
-        <v>76000</v>
+        <v>0</v>
       </c>
       <c r="J39" s="3">
         <f t="shared" si="4"/>
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="K39" s="3">
         <f t="shared" si="5"/>
-        <v>14285.714285714286</v>
+        <v>0</v>
       </c>
       <c r="L39" s="3">
         <f t="shared" si="6"/>
-        <v>30000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C40">
         <f t="shared" si="7"/>
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="D40">
         <v>38</v>
@@ -3557,7 +3559,7 @@
       </c>
       <c r="G40" s="3">
         <f t="shared" si="1"/>
-        <v>37000</v>
+        <v>0</v>
       </c>
       <c r="H40" s="3">
         <f t="shared" si="2"/>
@@ -3565,7 +3567,7 @@
       </c>
       <c r="I40" s="3">
         <f t="shared" si="3"/>
-        <v>77000</v>
+        <v>0</v>
       </c>
       <c r="J40" s="3">
         <f t="shared" si="4"/>
@@ -3583,7 +3585,7 @@
     <row r="41" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C41">
         <f t="shared" si="7"/>
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D41">
         <v>39</v>
@@ -3597,7 +3599,7 @@
       </c>
       <c r="G41" s="3">
         <f t="shared" si="1"/>
-        <v>38000</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <f t="shared" si="2"/>
@@ -3605,7 +3607,7 @@
       </c>
       <c r="I41" s="3">
         <f t="shared" si="3"/>
-        <v>78000</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <f t="shared" si="4"/>
@@ -3623,7 +3625,7 @@
     <row r="42" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C42">
         <f t="shared" si="7"/>
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D42">
         <v>40</v>
@@ -3637,7 +3639,7 @@
       </c>
       <c r="G42" s="3">
         <f t="shared" si="1"/>
-        <v>39000</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
         <f t="shared" si="2"/>
@@ -3645,7 +3647,7 @@
       </c>
       <c r="I42" s="3">
         <f t="shared" si="3"/>
-        <v>79000</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
         <f t="shared" si="4"/>
@@ -3663,7 +3665,7 @@
     <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C43">
         <f t="shared" si="7"/>
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="D43">
         <v>41</v>
@@ -3677,7 +3679,7 @@
       </c>
       <c r="G43" s="3">
         <f t="shared" si="1"/>
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <f t="shared" si="2"/>
@@ -3685,7 +3687,7 @@
       </c>
       <c r="I43" s="3">
         <f t="shared" si="3"/>
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <f t="shared" si="4"/>
@@ -3703,7 +3705,7 @@
     <row r="44" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C44">
         <f t="shared" si="7"/>
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="D44">
         <v>42</v>
@@ -3717,7 +3719,7 @@
       </c>
       <c r="G44" s="3">
         <f t="shared" si="1"/>
-        <v>41000</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
         <f t="shared" si="2"/>
@@ -3725,7 +3727,7 @@
       </c>
       <c r="I44" s="3">
         <f t="shared" si="3"/>
-        <v>81000</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
         <f t="shared" si="4"/>
@@ -3743,7 +3745,7 @@
     <row r="45" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C45">
         <f t="shared" si="7"/>
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="D45">
         <v>43</v>
@@ -3757,7 +3759,7 @@
       </c>
       <c r="G45" s="3">
         <f t="shared" si="1"/>
-        <v>42000</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" si="2"/>
@@ -3765,7 +3767,7 @@
       </c>
       <c r="I45" s="3">
         <f t="shared" si="3"/>
-        <v>82000</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <f t="shared" si="4"/>
@@ -3783,7 +3785,7 @@
     <row r="46" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C46">
         <f t="shared" si="7"/>
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="D46">
         <v>44</v>
@@ -3797,7 +3799,7 @@
       </c>
       <c r="G46" s="3">
         <f t="shared" si="1"/>
-        <v>43000</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <f t="shared" si="2"/>
@@ -3805,7 +3807,7 @@
       </c>
       <c r="I46" s="3">
         <f t="shared" si="3"/>
-        <v>83000</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <f t="shared" si="4"/>
@@ -3823,7 +3825,7 @@
     <row r="47" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C47">
         <f t="shared" si="7"/>
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D47">
         <v>45</v>
@@ -3837,7 +3839,7 @@
       </c>
       <c r="G47" s="3">
         <f t="shared" si="1"/>
-        <v>44000</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <f t="shared" si="2"/>
@@ -3845,7 +3847,7 @@
       </c>
       <c r="I47" s="3">
         <f t="shared" si="3"/>
-        <v>84000</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <f t="shared" si="4"/>
@@ -3863,7 +3865,7 @@
     <row r="48" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C48">
         <f t="shared" si="7"/>
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="D48">
         <v>46</v>
@@ -3877,7 +3879,7 @@
       </c>
       <c r="G48" s="3">
         <f t="shared" si="1"/>
-        <v>45000</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <f t="shared" si="2"/>
@@ -3885,7 +3887,7 @@
       </c>
       <c r="I48" s="3">
         <f t="shared" si="3"/>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <f t="shared" si="4"/>
@@ -3903,7 +3905,7 @@
     <row r="49" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C49">
         <f t="shared" si="7"/>
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="D49">
         <v>47</v>
@@ -3917,7 +3919,7 @@
       </c>
       <c r="G49" s="3">
         <f t="shared" si="1"/>
-        <v>46000</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <f t="shared" si="2"/>
@@ -3925,7 +3927,7 @@
       </c>
       <c r="I49" s="3">
         <f t="shared" si="3"/>
-        <v>86000</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <f t="shared" si="4"/>
@@ -3943,7 +3945,7 @@
     <row r="50" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C50">
         <f t="shared" si="7"/>
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="D50">
         <v>48</v>
@@ -3957,7 +3959,7 @@
       </c>
       <c r="G50" s="3">
         <f t="shared" si="1"/>
-        <v>47000</v>
+        <v>0</v>
       </c>
       <c r="H50" s="3">
         <f t="shared" si="2"/>
@@ -3965,7 +3967,7 @@
       </c>
       <c r="I50" s="3">
         <f t="shared" si="3"/>
-        <v>87000</v>
+        <v>0</v>
       </c>
       <c r="J50" s="3">
         <f t="shared" si="4"/>
@@ -3983,7 +3985,7 @@
     <row r="51" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C51">
         <f t="shared" si="7"/>
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="D51">
         <v>49</v>
@@ -3997,7 +3999,7 @@
       </c>
       <c r="G51" s="3">
         <f t="shared" si="1"/>
-        <v>48000</v>
+        <v>0</v>
       </c>
       <c r="H51" s="3">
         <f t="shared" si="2"/>
@@ -4005,7 +4007,7 @@
       </c>
       <c r="I51" s="3">
         <f t="shared" si="3"/>
-        <v>88000</v>
+        <v>0</v>
       </c>
       <c r="J51" s="3">
         <f t="shared" si="4"/>
@@ -4023,7 +4025,7 @@
     <row r="52" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C52">
         <f t="shared" si="7"/>
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="D52">
         <v>50</v>
@@ -4037,7 +4039,7 @@
       </c>
       <c r="G52" s="3">
         <f t="shared" si="1"/>
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <f t="shared" si="2"/>
@@ -4045,7 +4047,7 @@
       </c>
       <c r="I52" s="3">
         <f t="shared" si="3"/>
-        <v>89000</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <f t="shared" si="4"/>
@@ -4063,7 +4065,7 @@
     <row r="53" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C53">
         <f t="shared" si="7"/>
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="D53">
         <v>51</v>
@@ -4077,7 +4079,7 @@
       </c>
       <c r="G53" s="3">
         <f t="shared" si="1"/>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="H53" s="3">
         <f t="shared" si="2"/>
@@ -4085,7 +4087,7 @@
       </c>
       <c r="I53" s="3">
         <f t="shared" si="3"/>
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J53" s="3">
         <f t="shared" si="4"/>
@@ -4103,7 +4105,7 @@
     <row r="54" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C54">
         <f t="shared" si="7"/>
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="D54">
         <v>52</v>
@@ -4117,7 +4119,7 @@
       </c>
       <c r="G54" s="3">
         <f t="shared" si="1"/>
-        <v>51000</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3">
         <f t="shared" si="2"/>
@@ -4125,7 +4127,7 @@
       </c>
       <c r="I54" s="3">
         <f t="shared" si="3"/>
-        <v>91000</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
         <f t="shared" si="4"/>
@@ -4143,7 +4145,7 @@
     <row r="55" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C55">
         <f t="shared" si="7"/>
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="D55">
         <v>53</v>
@@ -4157,7 +4159,7 @@
       </c>
       <c r="G55" s="3">
         <f t="shared" si="1"/>
-        <v>52000</v>
+        <v>0</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" si="2"/>
@@ -4165,7 +4167,7 @@
       </c>
       <c r="I55" s="3">
         <f t="shared" si="3"/>
-        <v>92000</v>
+        <v>0</v>
       </c>
       <c r="J55" s="3">
         <f t="shared" si="4"/>
@@ -4183,7 +4185,7 @@
     <row r="56" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C56">
         <f t="shared" si="7"/>
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="D56">
         <v>54</v>
@@ -4197,7 +4199,7 @@
       </c>
       <c r="G56" s="3">
         <f t="shared" si="1"/>
-        <v>53000</v>
+        <v>0</v>
       </c>
       <c r="H56" s="3">
         <f t="shared" si="2"/>
@@ -4205,7 +4207,7 @@
       </c>
       <c r="I56" s="3">
         <f t="shared" si="3"/>
-        <v>93000</v>
+        <v>0</v>
       </c>
       <c r="J56" s="3">
         <f t="shared" si="4"/>
@@ -4223,7 +4225,7 @@
     <row r="57" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C57">
         <f t="shared" si="7"/>
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="D57">
         <v>55</v>
@@ -4237,7 +4239,7 @@
       </c>
       <c r="G57" s="3">
         <f t="shared" si="1"/>
-        <v>54000</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <f t="shared" si="2"/>
@@ -4245,7 +4247,7 @@
       </c>
       <c r="I57" s="3">
         <f t="shared" si="3"/>
-        <v>94000</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
         <f t="shared" si="4"/>
@@ -4263,7 +4265,7 @@
     <row r="58" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C58">
         <f t="shared" si="7"/>
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="D58">
         <v>56</v>
@@ -4285,7 +4287,7 @@
       </c>
       <c r="I58" s="3">
         <f t="shared" si="3"/>
-        <v>95000</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <f t="shared" si="4"/>
@@ -4303,7 +4305,7 @@
     <row r="59" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C59">
         <f t="shared" si="7"/>
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="D59">
         <v>57</v>
@@ -4325,7 +4327,7 @@
       </c>
       <c r="I59" s="3">
         <f t="shared" si="3"/>
-        <v>96000</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
         <f t="shared" si="4"/>
@@ -4343,7 +4345,7 @@
     <row r="60" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C60">
         <f t="shared" si="7"/>
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="D60">
         <v>58</v>
@@ -4365,7 +4367,7 @@
       </c>
       <c r="I60" s="3">
         <f t="shared" si="3"/>
-        <v>97000</v>
+        <v>0</v>
       </c>
       <c r="J60" s="3">
         <f t="shared" si="4"/>
@@ -4383,7 +4385,7 @@
     <row r="61" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C61">
         <f t="shared" si="7"/>
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="D61">
         <v>59</v>
@@ -4405,7 +4407,7 @@
       </c>
       <c r="I61" s="3">
         <f t="shared" si="3"/>
-        <v>98000</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <f t="shared" si="4"/>
@@ -4423,7 +4425,7 @@
     <row r="62" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C62">
         <f t="shared" si="7"/>
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="D62">
         <v>60</v>
@@ -4445,7 +4447,7 @@
       </c>
       <c r="I62" s="3">
         <f t="shared" si="3"/>
-        <v>99000</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <f t="shared" si="4"/>
@@ -4463,7 +4465,7 @@
     <row r="63" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C63">
         <f t="shared" si="7"/>
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="D63">
         <v>61</v>
@@ -4485,7 +4487,7 @@
       </c>
       <c r="I63" s="3">
         <f t="shared" si="3"/>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J63" s="3">
         <f t="shared" si="4"/>
@@ -4503,7 +4505,7 @@
     <row r="64" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C64">
         <f t="shared" si="7"/>
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="D64">
         <v>62</v>
@@ -4543,7 +4545,7 @@
     <row r="65" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C65">
         <f t="shared" si="7"/>
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="D65">
         <v>63</v>
@@ -4583,7 +4585,7 @@
     <row r="66" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C66">
         <f t="shared" si="7"/>
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="D66">
         <v>64</v>
@@ -4623,7 +4625,7 @@
     <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C67">
         <f t="shared" si="7"/>
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="D67">
         <v>65</v>
@@ -4663,7 +4665,7 @@
     <row r="68" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C68">
         <f t="shared" si="7"/>
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D68">
         <v>66</v>
@@ -4676,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="3">
-        <f t="shared" ref="G68:G75" si="9">IF(OR(C68&lt;65,C68&gt;94),0, 25000+((C68-65)*1000))</f>
+        <f t="shared" ref="G68:G75" si="9">IF($C$3&gt;=65,IF(C68&gt;94,0,25000+((D68-1)*1000)),IF(OR(C68&lt;65,C68&gt;94),0,25000+((C68-65)*1000)))</f>
         <v>0</v>
       </c>
       <c r="H68" s="3">
@@ -4703,7 +4705,7 @@
     <row r="69" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C69">
         <f t="shared" ref="C69:C75" si="15">C68+1</f>
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="D69">
         <v>67</v>
@@ -4743,7 +4745,7 @@
     <row r="70" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C70">
         <f t="shared" si="15"/>
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D70">
         <v>68</v>
@@ -4783,7 +4785,7 @@
     <row r="71" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C71">
         <f t="shared" si="15"/>
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D71">
         <v>69</v>
@@ -4823,7 +4825,7 @@
     <row r="72" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C72">
         <f t="shared" si="15"/>
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D72">
         <v>70</v>
@@ -4863,7 +4865,7 @@
     <row r="73" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C73">
         <f t="shared" si="15"/>
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="D73">
         <v>71</v>
@@ -4903,7 +4905,7 @@
     <row r="74" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C74">
         <f t="shared" si="15"/>
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="D74">
         <v>72</v>
@@ -4942,7 +4944,7 @@
     <row r="75" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C75">
         <f t="shared" si="15"/>
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="D75">
         <v>73</v>

--- a/Actuarial_Annuity_Calculator.xlsx
+++ b/Actuarial_Annuity_Calculator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Documents\Actuary\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B736FAF8-EA86-4BF8-A98B-C94D575A4343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E6F455-DE10-4EC8-B799-A442515B84FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DEF2D046-47D8-47A7-A088-BE1834AA0769}"/>
   </bookViews>
@@ -429,7 +429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -446,16 +446,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -777,7 +780,7 @@
   <dimension ref="B2:J105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H12" sqref="H12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,42 +791,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -833,52 +836,52 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
         <f>B9</f>
-        <v>68</v>
-      </c>
-      <c r="E6">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="12">
         <f>_xlfn.IFNA(IF(E6="", "",HLOOKUP($B$6, 'Plan Calculations'!F2:L75, E6+1, FALSE)), "Something is wrong")</f>
-        <v>25000</v>
-      </c>
-      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
         <f>SUM(F6:F105)</f>
-        <v>1026000</v>
-      </c>
-      <c r="I6" s="11"/>
+        <v>105000</v>
+      </c>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D7">
+      <c r="D7" s="1">
         <f>IF(E7="", "", D6+1)</f>
-        <v>69</v>
-      </c>
-      <c r="E7">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="12">
         <f>_xlfn.IFNA(IF(E7="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E7+1, FALSE)), "Something is wrong")</f>
-        <v>26000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <f t="shared" ref="D8:D71" si="0">IF(E8="", "", D7+1)</f>
-        <v>70</v>
-      </c>
-      <c r="E8">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="12">
         <f>_xlfn.IFNA(IF(E8="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E8+1, FALSE)), "Something is wrong")</f>
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>89</v>
@@ -887,53 +890,53 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
-        <v>68</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="E9">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="E9" s="1">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="12">
         <f>_xlfn.IFNA(IF(E9="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E9+1, FALSE)), "Something is wrong")</f>
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="H9" s="4">
         <f>COUNTIF(F6:F105, "&gt;0")</f>
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="E10" s="1">
         <v>5</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="12">
         <f>_xlfn.IFNA(IF(E10="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E10+1, FALSE)), "Something is wrong")</f>
-        <v>29000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="str">
         <f>IF(OR(B6="Plan #1", B6="Plan #3", B6="Plan #5", B6="Plan #6", B6="plan #7"), "Age Payments Begin", "")</f>
-        <v/>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="E11">
+        <v>Age Payments Begin</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E11" s="1">
         <v>6</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="12">
         <f>_xlfn.IFNA(IF(E11="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E11+1, FALSE)), "Something is wrong")</f>
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>90</v>
@@ -944,858 +947,858 @@
       <c r="B12" s="1">
         <v>70</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="E12" s="1">
         <v>7</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="12">
         <f>_xlfn.IFNA(IF(E12="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E12+1, FALSE)), "Something is wrong")</f>
-        <v>31000</v>
+        <v>0</v>
       </c>
       <c r="H12" s="4">
         <f>IF(OR(B6="Plan #1", B6="plan #5", B6="plan #6", B6="plan #7"), B12+B15-1, IF(B6="Plan #2", 94, IF(B6="Plan #3", 110, 100)))</f>
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="E13" s="1">
         <v>8</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="12">
         <f>_xlfn.IFNA(IF(E13="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E13+1, FALSE)), "Something is wrong")</f>
-        <v>32000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="str">
         <f>IF(OR(B6="Plan #1", B6="Plan #5", B6="Plan #6", B6="plan #7"), "Years of Payment", "")</f>
-        <v/>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-      <c r="E14">
+        <v>Years of Payment</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="E14" s="1">
         <v>9</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="12">
         <f>_xlfn.IFNA(IF(E14="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E14+1, FALSE)), "Something is wrong")</f>
-        <v>33000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>7</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="E15" s="1">
+        <v>10</v>
+      </c>
+      <c r="F15" s="12">
+        <f>_xlfn.IFNA(IF(E15="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E15+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E16" s="1">
+        <v>11</v>
+      </c>
+      <c r="F16" s="12">
+        <f>_xlfn.IFNA(IF(E16="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E16+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="E17" s="1">
+        <v>12</v>
+      </c>
+      <c r="F17" s="12">
+        <f>_xlfn.IFNA(IF(E17="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E17+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="E18" s="1">
+        <v>13</v>
+      </c>
+      <c r="F18" s="12">
+        <f>_xlfn.IFNA(IF(E18="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E18+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="E19" s="1">
+        <v>14</v>
+      </c>
+      <c r="F19" s="12">
+        <f>_xlfn.IFNA(IF(E19="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E19+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="E20" s="1">
+        <v>15</v>
+      </c>
+      <c r="F20" s="12">
+        <f>_xlfn.IFNA(IF(E20="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E20+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="E21" s="1">
+        <v>16</v>
+      </c>
+      <c r="F21" s="12">
+        <f>_xlfn.IFNA(IF(E21="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E21+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="E22" s="1">
+        <v>17</v>
+      </c>
+      <c r="F22" s="12">
+        <f>_xlfn.IFNA(IF(E22="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E22+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="E23" s="1">
+        <v>18</v>
+      </c>
+      <c r="F23" s="12">
+        <f>_xlfn.IFNA(IF(E23="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E23+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="E24" s="1">
+        <v>19</v>
+      </c>
+      <c r="F24" s="12">
+        <f>_xlfn.IFNA(IF(E24="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E24+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="E25" s="1">
+        <v>20</v>
+      </c>
+      <c r="F25" s="12">
+        <f>_xlfn.IFNA(IF(E25="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E25+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E26" s="1">
+        <v>21</v>
+      </c>
+      <c r="F26" s="12">
+        <f>_xlfn.IFNA(IF(E26="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E26+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="E27" s="1">
+        <v>22</v>
+      </c>
+      <c r="F27" s="12">
+        <f>_xlfn.IFNA(IF(E27="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E27+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="E28" s="1">
+        <v>23</v>
+      </c>
+      <c r="F28" s="12">
+        <f>_xlfn.IFNA(IF(E28="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E28+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="E29" s="1">
+        <v>24</v>
+      </c>
+      <c r="F29" s="12">
+        <f>_xlfn.IFNA(IF(E29="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E29+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="E30" s="1">
+        <v>25</v>
+      </c>
+      <c r="F30" s="12">
+        <f>_xlfn.IFNA(IF(E30="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E30+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="E31" s="1">
+        <v>26</v>
+      </c>
+      <c r="F31" s="12">
+        <f>_xlfn.IFNA(IF(E31="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E31+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="1">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="E32" s="1">
+        <v>27</v>
+      </c>
+      <c r="F32" s="12">
+        <f>_xlfn.IFNA(IF(E32="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E32+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="E33" s="1">
+        <v>28</v>
+      </c>
+      <c r="F33" s="12">
+        <f>_xlfn.IFNA(IF(E33="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E33+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="1">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="E34" s="1">
+        <v>29</v>
+      </c>
+      <c r="F34" s="12">
+        <f>_xlfn.IFNA(IF(E34="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E34+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D35" s="1">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="E35" s="1">
+        <v>30</v>
+      </c>
+      <c r="F35" s="12">
+        <f>_xlfn.IFNA(IF(E35="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E35+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D36" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="E36" s="1">
+        <v>31</v>
+      </c>
+      <c r="F36" s="12">
+        <f>_xlfn.IFNA(IF(E36="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E36+1, FALSE)), "Something is wrong")</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D37" s="1">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="E37" s="1">
+        <v>32</v>
+      </c>
+      <c r="F37" s="12">
+        <f>_xlfn.IFNA(IF(E37="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E37+1, FALSE)), "Something is wrong")</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D38" s="1">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="E38" s="1">
+        <v>33</v>
+      </c>
+      <c r="F38" s="12">
+        <f>_xlfn.IFNA(IF(E38="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E38+1, FALSE)), "Something is wrong")</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D39" s="1">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="E39" s="1">
+        <v>34</v>
+      </c>
+      <c r="F39" s="12">
+        <f>_xlfn.IFNA(IF(E39="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E39+1, FALSE)), "Something is wrong")</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D40" s="1">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="E40" s="1">
+        <v>35</v>
+      </c>
+      <c r="F40" s="12">
+        <f>_xlfn.IFNA(IF(E40="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E40+1, FALSE)), "Something is wrong")</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D41" s="1">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="E41" s="1">
+        <v>36</v>
+      </c>
+      <c r="F41" s="12">
+        <f>_xlfn.IFNA(IF(E41="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E41+1, FALSE)), "Something is wrong")</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D42" s="1">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="E42" s="1">
+        <v>37</v>
+      </c>
+      <c r="F42" s="12">
+        <f>_xlfn.IFNA(IF(E42="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E42+1, FALSE)), "Something is wrong")</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D43" s="1">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="F15" s="3">
-        <f>_xlfn.IFNA(IF(E15="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E15+1, FALSE)), "Something is wrong")</f>
-        <v>34000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D16">
+      <c r="E43" s="1">
+        <v>38</v>
+      </c>
+      <c r="F43" s="12">
+        <f>_xlfn.IFNA(IF(E43="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E43+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D44" s="1">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="E16">
-        <v>11</v>
-      </c>
-      <c r="F16" s="3">
-        <f>_xlfn.IFNA(IF(E16="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E16+1, FALSE)), "Something is wrong")</f>
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D17">
+      <c r="E44" s="1">
+        <v>39</v>
+      </c>
+      <c r="F44" s="12">
+        <f>_xlfn.IFNA(IF(E44="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E44+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D45" s="1">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="E17">
-        <v>12</v>
-      </c>
-      <c r="F17" s="3">
-        <f>_xlfn.IFNA(IF(E17="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E17+1, FALSE)), "Something is wrong")</f>
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18">
+      <c r="E45" s="1">
+        <v>40</v>
+      </c>
+      <c r="F45" s="12">
+        <f>_xlfn.IFNA(IF(E45="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E45+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D46" s="1">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="E18">
-        <v>13</v>
-      </c>
-      <c r="F18" s="3">
-        <f>_xlfn.IFNA(IF(E18="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E18+1, FALSE)), "Something is wrong")</f>
-        <v>37000</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D19">
+      <c r="E46" s="1">
+        <v>41</v>
+      </c>
+      <c r="F46" s="12">
+        <f>_xlfn.IFNA(IF(E46="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E46+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D47" s="1">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="E19">
-        <v>14</v>
-      </c>
-      <c r="F19" s="3">
-        <f>_xlfn.IFNA(IF(E19="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E19+1, FALSE)), "Something is wrong")</f>
-        <v>38000</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D20">
+      <c r="E47" s="1">
+        <v>42</v>
+      </c>
+      <c r="F47" s="12">
+        <f>_xlfn.IFNA(IF(E47="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E47+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D48" s="1">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="E20">
-        <v>15</v>
-      </c>
-      <c r="F20" s="3">
-        <f>_xlfn.IFNA(IF(E20="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E20+1, FALSE)), "Something is wrong")</f>
-        <v>39000</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D21">
+      <c r="E48" s="1">
+        <v>43</v>
+      </c>
+      <c r="F48" s="12">
+        <f>_xlfn.IFNA(IF(E48="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E48+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D49" s="1">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="E21">
-        <v>16</v>
-      </c>
-      <c r="F21" s="3">
-        <f>_xlfn.IFNA(IF(E21="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E21+1, FALSE)), "Something is wrong")</f>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D22">
+      <c r="E49" s="1">
+        <v>44</v>
+      </c>
+      <c r="F49" s="12">
+        <f>_xlfn.IFNA(IF(E49="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E49+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D50" s="1">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="E22">
-        <v>17</v>
-      </c>
-      <c r="F22" s="3">
-        <f>_xlfn.IFNA(IF(E22="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E22+1, FALSE)), "Something is wrong")</f>
-        <v>41000</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D23">
+      <c r="E50" s="1">
+        <v>45</v>
+      </c>
+      <c r="F50" s="12">
+        <f>_xlfn.IFNA(IF(E50="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E50+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D51" s="1">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="E23">
-        <v>18</v>
-      </c>
-      <c r="F23" s="3">
-        <f>_xlfn.IFNA(IF(E23="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E23+1, FALSE)), "Something is wrong")</f>
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D24">
+      <c r="E51" s="1">
+        <v>46</v>
+      </c>
+      <c r="F51" s="12">
+        <f>_xlfn.IFNA(IF(E51="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E51+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D52" s="1">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="E24">
-        <v>19</v>
-      </c>
-      <c r="F24" s="3">
-        <f>_xlfn.IFNA(IF(E24="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E24+1, FALSE)), "Something is wrong")</f>
-        <v>43000</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D25">
+      <c r="E52" s="1">
+        <v>47</v>
+      </c>
+      <c r="F52" s="12">
+        <f>_xlfn.IFNA(IF(E52="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E52+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D53" s="1">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="E25">
-        <v>20</v>
-      </c>
-      <c r="F25" s="3">
-        <f>_xlfn.IFNA(IF(E25="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E25+1, FALSE)), "Something is wrong")</f>
-        <v>44000</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D26">
+      <c r="E53" s="1">
+        <v>48</v>
+      </c>
+      <c r="F53" s="12">
+        <f>_xlfn.IFNA(IF(E53="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E53+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D54" s="1">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="E26">
-        <v>21</v>
-      </c>
-      <c r="F26" s="3">
-        <f>_xlfn.IFNA(IF(E26="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E26+1, FALSE)), "Something is wrong")</f>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D27">
+      <c r="E54" s="1">
+        <v>49</v>
+      </c>
+      <c r="F54" s="12">
+        <f>_xlfn.IFNA(IF(E54="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E54+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D55" s="1">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="E27">
-        <v>22</v>
-      </c>
-      <c r="F27" s="3">
-        <f>_xlfn.IFNA(IF(E27="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E27+1, FALSE)), "Something is wrong")</f>
-        <v>46000</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D28">
+      <c r="E55" s="1">
+        <v>50</v>
+      </c>
+      <c r="F55" s="12">
+        <f>_xlfn.IFNA(IF(E55="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E55+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D56" s="1">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="E28">
-        <v>23</v>
-      </c>
-      <c r="F28" s="3">
-        <f>_xlfn.IFNA(IF(E28="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E28+1, FALSE)), "Something is wrong")</f>
-        <v>47000</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D29">
+      <c r="E56" s="1">
+        <v>51</v>
+      </c>
+      <c r="F56" s="12">
+        <f>_xlfn.IFNA(IF(E56="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E56+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D57" s="1">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="E29">
-        <v>24</v>
-      </c>
-      <c r="F29" s="3">
-        <f>_xlfn.IFNA(IF(E29="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E29+1, FALSE)), "Something is wrong")</f>
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D30">
+      <c r="E57" s="1">
+        <v>52</v>
+      </c>
+      <c r="F57" s="12">
+        <f>_xlfn.IFNA(IF(E57="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E57+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D58" s="1">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="E30">
-        <v>25</v>
-      </c>
-      <c r="F30" s="3">
-        <f>_xlfn.IFNA(IF(E30="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E30+1, FALSE)), "Something is wrong")</f>
-        <v>49000</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D31">
+      <c r="E58" s="1">
+        <v>53</v>
+      </c>
+      <c r="F58" s="12">
+        <f>_xlfn.IFNA(IF(E58="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E58+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D59" s="1">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="E31">
-        <v>26</v>
-      </c>
-      <c r="F31" s="3">
-        <f>_xlfn.IFNA(IF(E31="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E31+1, FALSE)), "Something is wrong")</f>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D32">
+      <c r="E59" s="1">
+        <v>54</v>
+      </c>
+      <c r="F59" s="12">
+        <f>_xlfn.IFNA(IF(E59="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E59+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D60" s="1">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="E32">
-        <v>27</v>
-      </c>
-      <c r="F32" s="3">
-        <f>_xlfn.IFNA(IF(E32="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E32+1, FALSE)), "Something is wrong")</f>
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D33">
+      <c r="E60" s="1">
+        <v>55</v>
+      </c>
+      <c r="F60" s="12">
+        <f>_xlfn.IFNA(IF(E60="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E60+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D61" s="1">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="E33">
-        <v>28</v>
-      </c>
-      <c r="F33" s="3">
-        <f>_xlfn.IFNA(IF(E33="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E33+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D34">
+      <c r="E61" s="1">
+        <v>56</v>
+      </c>
+      <c r="F61" s="12">
+        <f>_xlfn.IFNA(IF(E61="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E61+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D62" s="1">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="E34">
-        <v>29</v>
-      </c>
-      <c r="F34" s="3">
-        <f>_xlfn.IFNA(IF(E34="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E34+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D35">
+      <c r="E62" s="1">
+        <v>57</v>
+      </c>
+      <c r="F62" s="12">
+        <f>_xlfn.IFNA(IF(E62="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E62+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D63" s="1">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="E35">
-        <v>30</v>
-      </c>
-      <c r="F35" s="3">
-        <f>_xlfn.IFNA(IF(E35="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E35+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D36">
+      <c r="E63" s="1">
+        <v>58</v>
+      </c>
+      <c r="F63" s="12">
+        <f>_xlfn.IFNA(IF(E63="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E63+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D64" s="1">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="E36">
-        <v>31</v>
-      </c>
-      <c r="F36" s="3">
-        <f>_xlfn.IFNA(IF(E36="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E36+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D37">
+      <c r="E64" s="1">
+        <v>59</v>
+      </c>
+      <c r="F64" s="12">
+        <f>_xlfn.IFNA(IF(E64="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E64+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D65" s="1">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="E37">
-        <v>32</v>
-      </c>
-      <c r="F37" s="3">
-        <f>_xlfn.IFNA(IF(E37="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E37+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D38">
+      <c r="E65" s="1">
+        <v>60</v>
+      </c>
+      <c r="F65" s="12">
+        <f>_xlfn.IFNA(IF(E65="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E65+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D66" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E38">
-        <v>33</v>
-      </c>
-      <c r="F38" s="3">
-        <f>_xlfn.IFNA(IF(E38="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E38+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D39">
+      <c r="E66" s="1">
+        <v>61</v>
+      </c>
+      <c r="F66" s="12">
+        <f>_xlfn.IFNA(IF(E66="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E66+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D67" s="1">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="E39">
-        <v>34</v>
-      </c>
-      <c r="F39" s="3">
-        <f>_xlfn.IFNA(IF(E39="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E39+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D40">
+      <c r="E67" s="1">
+        <v>62</v>
+      </c>
+      <c r="F67" s="12">
+        <f>_xlfn.IFNA(IF(E67="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E67+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D68" s="1">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="E40">
-        <v>35</v>
-      </c>
-      <c r="F40" s="3">
-        <f>_xlfn.IFNA(IF(E40="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E40+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D41">
+      <c r="E68" s="1">
+        <v>63</v>
+      </c>
+      <c r="F68" s="12">
+        <f>_xlfn.IFNA(IF(E68="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E68+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D69" s="1">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
-      <c r="E41">
-        <v>36</v>
-      </c>
-      <c r="F41" s="3">
-        <f>_xlfn.IFNA(IF(E41="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E41+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D42">
+      <c r="E69" s="1">
+        <v>64</v>
+      </c>
+      <c r="F69" s="12">
+        <f>_xlfn.IFNA(IF(E69="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E69+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D70" s="1">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="E42">
-        <v>37</v>
-      </c>
-      <c r="F42" s="3">
-        <f>_xlfn.IFNA(IF(E42="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E42+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D43">
+      <c r="E70" s="1">
+        <v>65</v>
+      </c>
+      <c r="F70" s="12">
+        <f>_xlfn.IFNA(IF(E70="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E70+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D71" s="1">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="E43">
-        <v>38</v>
-      </c>
-      <c r="F43" s="3">
-        <f>_xlfn.IFNA(IF(E43="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E43+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D44">
-        <f t="shared" si="0"/>
+      <c r="E71" s="1">
+        <v>66</v>
+      </c>
+      <c r="F71" s="12">
+        <f>_xlfn.IFNA(IF(E71="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E71+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D72" s="1">
+        <f t="shared" ref="D72:D105" si="1">IF(E72="", "", D71+1)</f>
         <v>106</v>
       </c>
-      <c r="E44">
-        <v>39</v>
-      </c>
-      <c r="F44" s="3">
-        <f>_xlfn.IFNA(IF(E44="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E44+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D45">
-        <f t="shared" si="0"/>
+      <c r="E72" s="1">
+        <v>67</v>
+      </c>
+      <c r="F72" s="12">
+        <f>_xlfn.IFNA(IF(E72="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E72+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D73" s="1">
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="E45">
-        <v>40</v>
-      </c>
-      <c r="F45" s="3">
-        <f>_xlfn.IFNA(IF(E45="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E45+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D46">
-        <f t="shared" si="0"/>
+      <c r="E73" s="1">
+        <v>68</v>
+      </c>
+      <c r="F73" s="12">
+        <f>_xlfn.IFNA(IF(E73="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E73+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D74" s="1">
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="E46">
-        <v>41</v>
-      </c>
-      <c r="F46" s="3">
-        <f>_xlfn.IFNA(IF(E46="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E46+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D47">
-        <f t="shared" si="0"/>
+      <c r="E74" s="1">
+        <v>69</v>
+      </c>
+      <c r="F74" s="12">
+        <f>_xlfn.IFNA(IF(E74="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E74+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D75" s="1">
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="E47">
-        <v>42</v>
-      </c>
-      <c r="F47" s="3">
-        <f>_xlfn.IFNA(IF(E47="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E47+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D48">
-        <f t="shared" si="0"/>
+      <c r="E75" s="1">
+        <v>70</v>
+      </c>
+      <c r="F75" s="12">
+        <f>_xlfn.IFNA(IF(E75="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E75+1, FALSE)), "Something is wrong")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D76" s="1">
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="E48">
-        <v>43</v>
-      </c>
-      <c r="F48" s="3">
-        <f>_xlfn.IFNA(IF(E48="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E48+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D49">
-        <f t="shared" si="0"/>
-        <v>111</v>
-      </c>
-      <c r="E49">
-        <v>44</v>
-      </c>
-      <c r="F49" s="3">
-        <f>_xlfn.IFNA(IF(E49="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E49+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D50">
-        <f t="shared" si="0"/>
-        <v>112</v>
-      </c>
-      <c r="E50">
-        <v>45</v>
-      </c>
-      <c r="F50" s="3">
-        <f>_xlfn.IFNA(IF(E50="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E50+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D51">
-        <f t="shared" si="0"/>
-        <v>113</v>
-      </c>
-      <c r="E51">
-        <v>46</v>
-      </c>
-      <c r="F51" s="3">
-        <f>_xlfn.IFNA(IF(E51="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E51+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D52">
-        <f t="shared" si="0"/>
-        <v>114</v>
-      </c>
-      <c r="E52">
-        <v>47</v>
-      </c>
-      <c r="F52" s="3">
-        <f>_xlfn.IFNA(IF(E52="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E52+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D53">
-        <f t="shared" si="0"/>
-        <v>115</v>
-      </c>
-      <c r="E53">
-        <v>48</v>
-      </c>
-      <c r="F53" s="3">
-        <f>_xlfn.IFNA(IF(E53="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E53+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D54">
-        <f t="shared" si="0"/>
-        <v>116</v>
-      </c>
-      <c r="E54">
-        <v>49</v>
-      </c>
-      <c r="F54" s="3">
-        <f>_xlfn.IFNA(IF(E54="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E54+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D55">
-        <f t="shared" si="0"/>
-        <v>117</v>
-      </c>
-      <c r="E55">
-        <v>50</v>
-      </c>
-      <c r="F55" s="3">
-        <f>_xlfn.IFNA(IF(E55="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E55+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D56">
-        <f t="shared" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="E56">
-        <v>51</v>
-      </c>
-      <c r="F56" s="3">
-        <f>_xlfn.IFNA(IF(E56="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E56+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D57">
-        <f t="shared" si="0"/>
-        <v>119</v>
-      </c>
-      <c r="E57">
-        <v>52</v>
-      </c>
-      <c r="F57" s="3">
-        <f>_xlfn.IFNA(IF(E57="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E57+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D58">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="E58">
-        <v>53</v>
-      </c>
-      <c r="F58" s="3">
-        <f>_xlfn.IFNA(IF(E58="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E58+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D59">
-        <f t="shared" si="0"/>
-        <v>121</v>
-      </c>
-      <c r="E59">
-        <v>54</v>
-      </c>
-      <c r="F59" s="3">
-        <f>_xlfn.IFNA(IF(E59="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E59+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D60">
-        <f t="shared" si="0"/>
-        <v>122</v>
-      </c>
-      <c r="E60">
-        <v>55</v>
-      </c>
-      <c r="F60" s="3">
-        <f>_xlfn.IFNA(IF(E60="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E60+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D61">
-        <f t="shared" si="0"/>
-        <v>123</v>
-      </c>
-      <c r="E61">
-        <v>56</v>
-      </c>
-      <c r="F61" s="3">
-        <f>_xlfn.IFNA(IF(E61="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E61+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D62">
-        <f t="shared" si="0"/>
-        <v>124</v>
-      </c>
-      <c r="E62">
-        <v>57</v>
-      </c>
-      <c r="F62" s="3">
-        <f>_xlfn.IFNA(IF(E62="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E62+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D63">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="E63">
-        <v>58</v>
-      </c>
-      <c r="F63" s="3">
-        <f>_xlfn.IFNA(IF(E63="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E63+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D64">
-        <f t="shared" si="0"/>
-        <v>126</v>
-      </c>
-      <c r="E64">
-        <v>59</v>
-      </c>
-      <c r="F64" s="3">
-        <f>_xlfn.IFNA(IF(E64="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E64+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D65">
-        <f t="shared" si="0"/>
-        <v>127</v>
-      </c>
-      <c r="E65">
-        <v>60</v>
-      </c>
-      <c r="F65" s="3">
-        <f>_xlfn.IFNA(IF(E65="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E65+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D66">
-        <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="E66">
-        <v>61</v>
-      </c>
-      <c r="F66" s="3">
-        <f>_xlfn.IFNA(IF(E66="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E66+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D67">
-        <f t="shared" si="0"/>
-        <v>129</v>
-      </c>
-      <c r="E67">
-        <v>62</v>
-      </c>
-      <c r="F67" s="3">
-        <f>_xlfn.IFNA(IF(E67="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E67+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D68">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E68">
-        <v>63</v>
-      </c>
-      <c r="F68" s="3">
-        <f>_xlfn.IFNA(IF(E68="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E68+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D69">
-        <f t="shared" si="0"/>
-        <v>131</v>
-      </c>
-      <c r="E69">
-        <v>64</v>
-      </c>
-      <c r="F69" s="3">
-        <f>_xlfn.IFNA(IF(E69="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E69+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D70">
-        <f t="shared" si="0"/>
-        <v>132</v>
-      </c>
-      <c r="E70">
-        <v>65</v>
-      </c>
-      <c r="F70" s="3">
-        <f>_xlfn.IFNA(IF(E70="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E70+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D71">
-        <f t="shared" si="0"/>
-        <v>133</v>
-      </c>
-      <c r="E71">
-        <v>66</v>
-      </c>
-      <c r="F71" s="3">
-        <f>_xlfn.IFNA(IF(E71="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E71+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D72">
-        <f t="shared" ref="D72:D105" si="1">IF(E72="", "", D71+1)</f>
-        <v>134</v>
-      </c>
-      <c r="E72">
-        <v>67</v>
-      </c>
-      <c r="F72" s="3">
-        <f>_xlfn.IFNA(IF(E72="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E72+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D73">
-        <f t="shared" si="1"/>
-        <v>135</v>
-      </c>
-      <c r="E73">
-        <v>68</v>
-      </c>
-      <c r="F73" s="3">
-        <f>_xlfn.IFNA(IF(E73="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E73+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D74">
-        <f t="shared" si="1"/>
-        <v>136</v>
-      </c>
-      <c r="E74">
-        <v>69</v>
-      </c>
-      <c r="F74" s="3">
-        <f>_xlfn.IFNA(IF(E74="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E74+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D75">
-        <f t="shared" si="1"/>
-        <v>137</v>
-      </c>
-      <c r="E75">
-        <v>70</v>
-      </c>
-      <c r="F75" s="3">
-        <f>_xlfn.IFNA(IF(E75="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E75+1, FALSE)), "Something is wrong")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D76">
-        <f t="shared" si="1"/>
-        <v>138</v>
-      </c>
-      <c r="E76">
+      <c r="E76" s="1">
         <v>71</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="12">
         <f>_xlfn.IFNA(IF(E76="", "",HLOOKUP($B$6, 'Plan Calculations'!$F$2:$L$75, E76+1, FALSE)), "Something is wrong")</f>
         <v>0</v>
       </c>
@@ -2006,7 +2009,7 @@
   <dimension ref="B2:L75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2051,7 +2054,7 @@
       </c>
       <c r="C3">
         <f>B6</f>
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2065,7 +2068,7 @@
       </c>
       <c r="G3" s="3">
         <f>IF($C$3&gt;=65,IF(C3&gt;94,0,25000+((D3-1)*1000)),IF(OR(C3&lt;65,C3&gt;94),0,25000+((C3-65)*1000)))</f>
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3">
         <f>IF(C3&lt;$B$9,0,7200)</f>
@@ -2073,7 +2076,7 @@
       </c>
       <c r="I3" s="3">
         <f>IF(OR(C3&lt;60, C3&gt;100), 0, C3*1000)</f>
-        <v>68000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3">
         <f>IF(C3&lt;$B$9, 0, IF(C3&lt;$B$9+($B$3/2), 19000, IF(C3&lt;$B$9+$B$3,25000,0)))</f>
@@ -2091,7 +2094,7 @@
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C4">
         <f>C3+1</f>
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -2105,7 +2108,7 @@
       </c>
       <c r="G4" s="3">
         <f t="shared" ref="G4:G67" si="1">IF($C$3&gt;=65,IF(C4&gt;94,0,25000+((D4-1)*1000)),IF(OR(C4&lt;65,C4&gt;94),0,25000+((C4-65)*1000)))</f>
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ref="H4:H67" si="2">IF(C4&lt;$B$9,0,7200)</f>
@@ -2113,7 +2116,7 @@
       </c>
       <c r="I4" s="3">
         <f t="shared" ref="I4:I67" si="3">IF(OR(C4&lt;60, C4&gt;100), 0, C4*1000)</f>
-        <v>69000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" ref="J4:J67" si="4">IF(C4&lt;$B$9, 0, IF(C4&lt;$B$9+($B$3/2), 19000, IF(C4&lt;$B$9+$B$3,25000,0)))</f>
@@ -2134,7 +2137,7 @@
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="7">C4+1</f>
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -2144,41 +2147,41 @@
       </c>
       <c r="F5" s="3">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="1"/>
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" si="4"/>
-        <v>19000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" si="5"/>
-        <v>14285.714285714286</v>
+        <v>0</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" si="6"/>
-        <v>30000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>'Illustration Calculator'!B9</f>
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <f t="shared" si="7"/>
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -2188,27 +2191,27 @@
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="1"/>
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="3"/>
-        <v>71000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="4"/>
-        <v>19000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="5"/>
-        <v>14285.714285714286</v>
+        <v>0</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" si="6"/>
@@ -2218,7 +2221,7 @@
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C7">
         <f t="shared" si="7"/>
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -2228,31 +2231,31 @@
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="1"/>
-        <v>29000</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="3"/>
-        <v>72000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="4"/>
-        <v>19000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" si="5"/>
-        <v>14285.714285714286</v>
+        <v>0</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="6"/>
-        <v>30000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -2261,7 +2264,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="7"/>
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -2271,27 +2274,27 @@
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="1"/>
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="3"/>
-        <v>73000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="4"/>
-        <v>19000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" si="5"/>
-        <v>14285.714285714286</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <f t="shared" si="6"/>
@@ -2305,7 +2308,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="7"/>
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -2315,37 +2318,37 @@
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="1"/>
-        <v>31000</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="3"/>
-        <v>74000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="4"/>
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" si="5"/>
-        <v>14285.714285714286</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="6"/>
-        <v>30000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C10">
         <f t="shared" si="7"/>
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -2355,27 +2358,27 @@
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="1"/>
-        <v>32000</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="3"/>
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="4"/>
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="5"/>
-        <v>14285.714285714286</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="6"/>
@@ -2385,7 +2388,7 @@
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C11">
         <f t="shared" si="7"/>
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -2395,37 +2398,37 @@
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="1"/>
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="3"/>
-        <v>76000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="4"/>
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="5"/>
-        <v>14285.714285714286</v>
+        <v>0</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="6"/>
-        <v>30000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C12">
         <f t="shared" si="7"/>
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -2439,15 +2442,15 @@
       </c>
       <c r="G12" s="3">
         <f t="shared" si="1"/>
-        <v>34000</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="3"/>
-        <v>77000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="4"/>
@@ -2465,7 +2468,7 @@
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C13">
         <f t="shared" si="7"/>
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D13">
         <v>11</v>
@@ -2479,15 +2482,15 @@
       </c>
       <c r="G13" s="3">
         <f t="shared" si="1"/>
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="3"/>
-        <v>78000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="4"/>
@@ -2505,7 +2508,7 @@
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C14">
         <f t="shared" si="7"/>
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="D14">
         <v>12</v>
@@ -2519,15 +2522,15 @@
       </c>
       <c r="G14" s="3">
         <f t="shared" si="1"/>
-        <v>36000</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="3"/>
-        <v>79000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="4"/>
@@ -2545,7 +2548,7 @@
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C15">
         <f t="shared" si="7"/>
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D15">
         <v>13</v>
@@ -2559,15 +2562,15 @@
       </c>
       <c r="G15" s="3">
         <f t="shared" si="1"/>
-        <v>37000</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="3"/>
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="4"/>
@@ -2585,7 +2588,7 @@
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C16">
         <f t="shared" si="7"/>
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="D16">
         <v>14</v>
@@ -2599,15 +2602,15 @@
       </c>
       <c r="G16" s="3">
         <f t="shared" si="1"/>
-        <v>38000</v>
+        <v>0</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="3"/>
-        <v>81000</v>
+        <v>0</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="4"/>
@@ -2625,7 +2628,7 @@
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17">
         <f t="shared" si="7"/>
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="D17">
         <v>15</v>
@@ -2639,15 +2642,15 @@
       </c>
       <c r="G17" s="3">
         <f t="shared" si="1"/>
-        <v>39000</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="3"/>
-        <v>82000</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="4"/>
@@ -2665,7 +2668,7 @@
     <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18">
         <f t="shared" si="7"/>
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="D18">
         <v>16</v>
@@ -2679,15 +2682,15 @@
       </c>
       <c r="G18" s="3">
         <f t="shared" si="1"/>
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="3"/>
-        <v>83000</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="4"/>
@@ -2705,7 +2708,7 @@
     <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19">
         <f t="shared" si="7"/>
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D19">
         <v>17</v>
@@ -2719,15 +2722,15 @@
       </c>
       <c r="G19" s="3">
         <f t="shared" si="1"/>
-        <v>41000</v>
+        <v>0</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="3"/>
-        <v>84000</v>
+        <v>0</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="4"/>
@@ -2745,7 +2748,7 @@
     <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20">
         <f t="shared" si="7"/>
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D20">
         <v>18</v>
@@ -2759,15 +2762,15 @@
       </c>
       <c r="G20" s="3">
         <f t="shared" si="1"/>
-        <v>42000</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="3"/>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" si="4"/>
@@ -2785,7 +2788,7 @@
     <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21">
         <f t="shared" si="7"/>
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="D21">
         <v>19</v>
@@ -2799,15 +2802,15 @@
       </c>
       <c r="G21" s="3">
         <f t="shared" si="1"/>
-        <v>43000</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="3"/>
-        <v>86000</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="4"/>
@@ -2825,7 +2828,7 @@
     <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22">
         <f t="shared" si="7"/>
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="D22">
         <v>20</v>
@@ -2839,15 +2842,15 @@
       </c>
       <c r="G22" s="3">
         <f t="shared" si="1"/>
-        <v>44000</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="3"/>
-        <v>87000</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" si="4"/>
@@ -2865,7 +2868,7 @@
     <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23">
         <f t="shared" si="7"/>
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="D23">
         <v>21</v>
@@ -2879,15 +2882,15 @@
       </c>
       <c r="G23" s="3">
         <f t="shared" si="1"/>
-        <v>45000</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="3"/>
-        <v>88000</v>
+        <v>60000</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" si="4"/>
@@ -2905,7 +2908,7 @@
     <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" si="7"/>
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="D24">
         <v>22</v>
@@ -2919,15 +2922,15 @@
       </c>
       <c r="G24" s="3">
         <f t="shared" si="1"/>
-        <v>46000</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="3"/>
-        <v>89000</v>
+        <v>61000</v>
       </c>
       <c r="J24" s="3">
         <f t="shared" si="4"/>
@@ -2945,7 +2948,7 @@
     <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" si="7"/>
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D25">
         <v>23</v>
@@ -2959,15 +2962,15 @@
       </c>
       <c r="G25" s="3">
         <f t="shared" si="1"/>
-        <v>47000</v>
+        <v>0</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="3"/>
-        <v>90000</v>
+        <v>62000</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="4"/>
@@ -2985,7 +2988,7 @@
     <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" si="7"/>
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="D26">
         <v>24</v>
@@ -2999,15 +3002,15 @@
       </c>
       <c r="G26" s="3">
         <f t="shared" si="1"/>
-        <v>48000</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="3"/>
-        <v>91000</v>
+        <v>63000</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="4"/>
@@ -3025,7 +3028,7 @@
     <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="7"/>
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D27">
         <v>25</v>
@@ -3039,15 +3042,15 @@
       </c>
       <c r="G27" s="3">
         <f t="shared" si="1"/>
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="3"/>
-        <v>92000</v>
+        <v>64000</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" si="4"/>
@@ -3065,7 +3068,7 @@
     <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="7"/>
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D28">
         <v>26</v>
@@ -3079,15 +3082,15 @@
       </c>
       <c r="G28" s="3">
         <f t="shared" si="1"/>
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="3"/>
-        <v>93000</v>
+        <v>65000</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" si="4"/>
@@ -3105,7 +3108,7 @@
     <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="7"/>
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="D29">
         <v>27</v>
@@ -3119,15 +3122,15 @@
       </c>
       <c r="G29" s="3">
         <f t="shared" si="1"/>
-        <v>51000</v>
+        <v>26000</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="3"/>
-        <v>94000</v>
+        <v>66000</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="4"/>
@@ -3145,7 +3148,7 @@
     <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="7"/>
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="D30">
         <v>28</v>
@@ -3159,15 +3162,15 @@
       </c>
       <c r="G30" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="H30" s="3">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" si="3"/>
-        <v>95000</v>
+        <v>67000</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" si="4"/>
@@ -3185,7 +3188,7 @@
     <row r="31" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="7"/>
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="D31">
         <v>29</v>
@@ -3199,15 +3202,15 @@
       </c>
       <c r="G31" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28000</v>
       </c>
       <c r="H31" s="3">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="I31" s="3">
         <f t="shared" si="3"/>
-        <v>96000</v>
+        <v>68000</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" si="4"/>
@@ -3225,7 +3228,7 @@
     <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="7"/>
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="D32">
         <v>30</v>
@@ -3239,15 +3242,15 @@
       </c>
       <c r="G32" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29000</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" si="2"/>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="3"/>
-        <v>97000</v>
+        <v>69000</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" si="4"/>
@@ -3265,7 +3268,7 @@
     <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="7"/>
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="D33">
         <v>31</v>
@@ -3275,11 +3278,11 @@
       </c>
       <c r="F33" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" si="2"/>
@@ -3287,25 +3290,25 @@
       </c>
       <c r="I33" s="3">
         <f t="shared" si="3"/>
-        <v>98000</v>
+        <v>70000</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="K33" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>14285.714285714286</v>
       </c>
       <c r="L33" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" si="7"/>
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="D34">
         <v>32</v>
@@ -3315,11 +3318,11 @@
       </c>
       <c r="F34" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G34" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>31000</v>
       </c>
       <c r="H34" s="3">
         <f t="shared" si="2"/>
@@ -3327,15 +3330,15 @@
       </c>
       <c r="I34" s="3">
         <f t="shared" si="3"/>
-        <v>99000</v>
+        <v>71000</v>
       </c>
       <c r="J34" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="K34" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>14285.714285714286</v>
       </c>
       <c r="L34" s="3">
         <f t="shared" si="6"/>
@@ -3345,7 +3348,7 @@
     <row r="35" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" si="7"/>
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="D35">
         <v>33</v>
@@ -3355,11 +3358,11 @@
       </c>
       <c r="F35" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>32000</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" si="2"/>
@@ -3367,25 +3370,25 @@
       </c>
       <c r="I35" s="3">
         <f t="shared" si="3"/>
-        <v>100000</v>
+        <v>72000</v>
       </c>
       <c r="J35" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="K35" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>14285.714285714286</v>
       </c>
       <c r="L35" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C36">
         <f t="shared" si="7"/>
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="D36">
         <v>34</v>
@@ -3395,11 +3398,11 @@
       </c>
       <c r="F36" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G36" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>33000</v>
       </c>
       <c r="H36" s="3">
         <f t="shared" si="2"/>
@@ -3407,15 +3410,15 @@
       </c>
       <c r="I36" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>73000</v>
       </c>
       <c r="J36" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="K36" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>14285.714285714286</v>
       </c>
       <c r="L36" s="3">
         <f t="shared" si="6"/>
@@ -3425,7 +3428,7 @@
     <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C37">
         <f t="shared" si="7"/>
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="D37">
         <v>35</v>
@@ -3435,11 +3438,11 @@
       </c>
       <c r="F37" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G37" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>34000</v>
       </c>
       <c r="H37" s="3">
         <f t="shared" si="2"/>
@@ -3447,25 +3450,25 @@
       </c>
       <c r="I37" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>74000</v>
       </c>
       <c r="J37" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="K37" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>14285.714285714286</v>
       </c>
       <c r="L37" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C38">
         <f t="shared" si="7"/>
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="D38">
         <v>36</v>
@@ -3475,11 +3478,11 @@
       </c>
       <c r="F38" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G38" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="H38" s="3">
         <f t="shared" si="2"/>
@@ -3487,15 +3490,15 @@
       </c>
       <c r="I38" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="J38" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="K38" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>14285.714285714286</v>
       </c>
       <c r="L38" s="3">
         <f t="shared" si="6"/>
@@ -3505,7 +3508,7 @@
     <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C39">
         <f t="shared" si="7"/>
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D39">
         <v>37</v>
@@ -3515,11 +3518,11 @@
       </c>
       <c r="F39" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G39" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36000</v>
       </c>
       <c r="H39" s="3">
         <f t="shared" si="2"/>
@@ -3527,25 +3530,25 @@
       </c>
       <c r="I39" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>76000</v>
       </c>
       <c r="J39" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="K39" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>14285.714285714286</v>
       </c>
       <c r="L39" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C40">
         <f t="shared" si="7"/>
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="D40">
         <v>38</v>
@@ -3559,7 +3562,7 @@
       </c>
       <c r="G40" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37000</v>
       </c>
       <c r="H40" s="3">
         <f t="shared" si="2"/>
@@ -3567,7 +3570,7 @@
       </c>
       <c r="I40" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>77000</v>
       </c>
       <c r="J40" s="3">
         <f t="shared" si="4"/>
@@ -3585,7 +3588,7 @@
     <row r="41" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C41">
         <f t="shared" si="7"/>
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="D41">
         <v>39</v>
@@ -3599,7 +3602,7 @@
       </c>
       <c r="G41" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38000</v>
       </c>
       <c r="H41" s="3">
         <f t="shared" si="2"/>
@@ -3607,7 +3610,7 @@
       </c>
       <c r="I41" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>78000</v>
       </c>
       <c r="J41" s="3">
         <f t="shared" si="4"/>
@@ -3625,7 +3628,7 @@
     <row r="42" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C42">
         <f t="shared" si="7"/>
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="D42">
         <v>40</v>
@@ -3639,7 +3642,7 @@
       </c>
       <c r="G42" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39000</v>
       </c>
       <c r="H42" s="3">
         <f t="shared" si="2"/>
@@ -3647,7 +3650,7 @@
       </c>
       <c r="I42" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>79000</v>
       </c>
       <c r="J42" s="3">
         <f t="shared" si="4"/>
@@ -3665,7 +3668,7 @@
     <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C43">
         <f t="shared" si="7"/>
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="D43">
         <v>41</v>
@@ -3679,7 +3682,7 @@
       </c>
       <c r="G43" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="H43" s="3">
         <f t="shared" si="2"/>
@@ -3687,7 +3690,7 @@
       </c>
       <c r="I43" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="J43" s="3">
         <f t="shared" si="4"/>
@@ -3705,7 +3708,7 @@
     <row r="44" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C44">
         <f t="shared" si="7"/>
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="D44">
         <v>42</v>
@@ -3719,7 +3722,7 @@
       </c>
       <c r="G44" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41000</v>
       </c>
       <c r="H44" s="3">
         <f t="shared" si="2"/>
@@ -3727,7 +3730,7 @@
       </c>
       <c r="I44" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>81000</v>
       </c>
       <c r="J44" s="3">
         <f t="shared" si="4"/>
@@ -3745,7 +3748,7 @@
     <row r="45" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C45">
         <f t="shared" si="7"/>
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="D45">
         <v>43</v>
@@ -3759,7 +3762,7 @@
       </c>
       <c r="G45" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>42000</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" si="2"/>
@@ -3767,7 +3770,7 @@
       </c>
       <c r="I45" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>82000</v>
       </c>
       <c r="J45" s="3">
         <f t="shared" si="4"/>
@@ -3785,7 +3788,7 @@
     <row r="46" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C46">
         <f t="shared" si="7"/>
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="D46">
         <v>44</v>
@@ -3799,7 +3802,7 @@
       </c>
       <c r="G46" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>43000</v>
       </c>
       <c r="H46" s="3">
         <f t="shared" si="2"/>
@@ -3807,7 +3810,7 @@
       </c>
       <c r="I46" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>83000</v>
       </c>
       <c r="J46" s="3">
         <f t="shared" si="4"/>
@@ -3825,7 +3828,7 @@
     <row r="47" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C47">
         <f t="shared" si="7"/>
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="D47">
         <v>45</v>
@@ -3839,7 +3842,7 @@
       </c>
       <c r="G47" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44000</v>
       </c>
       <c r="H47" s="3">
         <f t="shared" si="2"/>
@@ -3847,7 +3850,7 @@
       </c>
       <c r="I47" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>84000</v>
       </c>
       <c r="J47" s="3">
         <f t="shared" si="4"/>
@@ -3865,7 +3868,7 @@
     <row r="48" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C48">
         <f t="shared" si="7"/>
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="D48">
         <v>46</v>
@@ -3879,7 +3882,7 @@
       </c>
       <c r="G48" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>45000</v>
       </c>
       <c r="H48" s="3">
         <f t="shared" si="2"/>
@@ -3887,7 +3890,7 @@
       </c>
       <c r="I48" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>85000</v>
       </c>
       <c r="J48" s="3">
         <f t="shared" si="4"/>
@@ -3905,7 +3908,7 @@
     <row r="49" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C49">
         <f t="shared" si="7"/>
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="D49">
         <v>47</v>
@@ -3919,7 +3922,7 @@
       </c>
       <c r="G49" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>46000</v>
       </c>
       <c r="H49" s="3">
         <f t="shared" si="2"/>
@@ -3927,7 +3930,7 @@
       </c>
       <c r="I49" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>86000</v>
       </c>
       <c r="J49" s="3">
         <f t="shared" si="4"/>
@@ -3945,7 +3948,7 @@
     <row r="50" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C50">
         <f t="shared" si="7"/>
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="D50">
         <v>48</v>
@@ -3959,7 +3962,7 @@
       </c>
       <c r="G50" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>47000</v>
       </c>
       <c r="H50" s="3">
         <f t="shared" si="2"/>
@@ -3967,7 +3970,7 @@
       </c>
       <c r="I50" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>87000</v>
       </c>
       <c r="J50" s="3">
         <f t="shared" si="4"/>
@@ -3985,7 +3988,7 @@
     <row r="51" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C51">
         <f t="shared" si="7"/>
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="D51">
         <v>49</v>
@@ -3999,7 +4002,7 @@
       </c>
       <c r="G51" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="H51" s="3">
         <f t="shared" si="2"/>
@@ -4007,7 +4010,7 @@
       </c>
       <c r="I51" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>88000</v>
       </c>
       <c r="J51" s="3">
         <f t="shared" si="4"/>
@@ -4025,7 +4028,7 @@
     <row r="52" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C52">
         <f t="shared" si="7"/>
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="D52">
         <v>50</v>
@@ -4039,7 +4042,7 @@
       </c>
       <c r="G52" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>49000</v>
       </c>
       <c r="H52" s="3">
         <f t="shared" si="2"/>
@@ -4047,7 +4050,7 @@
       </c>
       <c r="I52" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>89000</v>
       </c>
       <c r="J52" s="3">
         <f t="shared" si="4"/>
@@ -4065,7 +4068,7 @@
     <row r="53" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C53">
         <f t="shared" si="7"/>
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="D53">
         <v>51</v>
@@ -4079,7 +4082,7 @@
       </c>
       <c r="G53" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="H53" s="3">
         <f t="shared" si="2"/>
@@ -4087,7 +4090,7 @@
       </c>
       <c r="I53" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="J53" s="3">
         <f t="shared" si="4"/>
@@ -4105,7 +4108,7 @@
     <row r="54" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C54">
         <f t="shared" si="7"/>
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="D54">
         <v>52</v>
@@ -4119,7 +4122,7 @@
       </c>
       <c r="G54" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>51000</v>
       </c>
       <c r="H54" s="3">
         <f t="shared" si="2"/>
@@ -4127,7 +4130,7 @@
       </c>
       <c r="I54" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>91000</v>
       </c>
       <c r="J54" s="3">
         <f t="shared" si="4"/>
@@ -4145,7 +4148,7 @@
     <row r="55" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C55">
         <f t="shared" si="7"/>
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="D55">
         <v>53</v>
@@ -4159,7 +4162,7 @@
       </c>
       <c r="G55" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>52000</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" si="2"/>
@@ -4167,7 +4170,7 @@
       </c>
       <c r="I55" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>92000</v>
       </c>
       <c r="J55" s="3">
         <f t="shared" si="4"/>
@@ -4185,7 +4188,7 @@
     <row r="56" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C56">
         <f t="shared" si="7"/>
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="D56">
         <v>54</v>
@@ -4199,7 +4202,7 @@
       </c>
       <c r="G56" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>53000</v>
       </c>
       <c r="H56" s="3">
         <f t="shared" si="2"/>
@@ -4207,7 +4210,7 @@
       </c>
       <c r="I56" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>93000</v>
       </c>
       <c r="J56" s="3">
         <f t="shared" si="4"/>
@@ -4225,7 +4228,7 @@
     <row r="57" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C57">
         <f t="shared" si="7"/>
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="D57">
         <v>55</v>
@@ -4239,7 +4242,7 @@
       </c>
       <c r="G57" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>54000</v>
       </c>
       <c r="H57" s="3">
         <f t="shared" si="2"/>
@@ -4247,7 +4250,7 @@
       </c>
       <c r="I57" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>94000</v>
       </c>
       <c r="J57" s="3">
         <f t="shared" si="4"/>
@@ -4265,7 +4268,7 @@
     <row r="58" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C58">
         <f t="shared" si="7"/>
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="D58">
         <v>56</v>
@@ -4287,7 +4290,7 @@
       </c>
       <c r="I58" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>95000</v>
       </c>
       <c r="J58" s="3">
         <f t="shared" si="4"/>
@@ -4305,7 +4308,7 @@
     <row r="59" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C59">
         <f t="shared" si="7"/>
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="D59">
         <v>57</v>
@@ -4327,7 +4330,7 @@
       </c>
       <c r="I59" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>96000</v>
       </c>
       <c r="J59" s="3">
         <f t="shared" si="4"/>
@@ -4345,7 +4348,7 @@
     <row r="60" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C60">
         <f t="shared" si="7"/>
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="D60">
         <v>58</v>
@@ -4367,7 +4370,7 @@
       </c>
       <c r="I60" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>97000</v>
       </c>
       <c r="J60" s="3">
         <f t="shared" si="4"/>
@@ -4385,7 +4388,7 @@
     <row r="61" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C61">
         <f t="shared" si="7"/>
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="D61">
         <v>59</v>
@@ -4407,7 +4410,7 @@
       </c>
       <c r="I61" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>98000</v>
       </c>
       <c r="J61" s="3">
         <f t="shared" si="4"/>
@@ -4425,7 +4428,7 @@
     <row r="62" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C62">
         <f t="shared" si="7"/>
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="D62">
         <v>60</v>
@@ -4447,7 +4450,7 @@
       </c>
       <c r="I62" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>99000</v>
       </c>
       <c r="J62" s="3">
         <f t="shared" si="4"/>
@@ -4465,7 +4468,7 @@
     <row r="63" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C63">
         <f t="shared" si="7"/>
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="D63">
         <v>61</v>
@@ -4487,7 +4490,7 @@
       </c>
       <c r="I63" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="J63" s="3">
         <f t="shared" si="4"/>
@@ -4505,7 +4508,7 @@
     <row r="64" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C64">
         <f t="shared" si="7"/>
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D64">
         <v>62</v>
@@ -4545,7 +4548,7 @@
     <row r="65" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C65">
         <f t="shared" si="7"/>
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="D65">
         <v>63</v>
@@ -4585,7 +4588,7 @@
     <row r="66" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C66">
         <f t="shared" si="7"/>
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="D66">
         <v>64</v>
@@ -4625,7 +4628,7 @@
     <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C67">
         <f t="shared" si="7"/>
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="D67">
         <v>65</v>
@@ -4665,7 +4668,7 @@
     <row r="68" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C68">
         <f t="shared" si="7"/>
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="D68">
         <v>66</v>
@@ -4705,7 +4708,7 @@
     <row r="69" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C69">
         <f t="shared" ref="C69:C75" si="15">C68+1</f>
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="D69">
         <v>67</v>
@@ -4745,7 +4748,7 @@
     <row r="70" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C70">
         <f t="shared" si="15"/>
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="D70">
         <v>68</v>
@@ -4785,7 +4788,7 @@
     <row r="71" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C71">
         <f t="shared" si="15"/>
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="D71">
         <v>69</v>
@@ -4825,7 +4828,7 @@
     <row r="72" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C72">
         <f t="shared" si="15"/>
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="D72">
         <v>70</v>
@@ -4865,7 +4868,7 @@
     <row r="73" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C73">
         <f t="shared" si="15"/>
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="D73">
         <v>71</v>
@@ -4905,7 +4908,7 @@
     <row r="74" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C74">
         <f t="shared" si="15"/>
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="D74">
         <v>72</v>
@@ -4944,7 +4947,7 @@
     <row r="75" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C75">
         <f t="shared" si="15"/>
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="D75">
         <v>73</v>
